--- a/src/Comparacion_resultados.xlsx
+++ b/src/Comparacion_resultados.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mer\Desktop\proyecto\mdp\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2CE84F-ED6C-4F87-B411-21F73CD966CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4B0F60-50D6-4D7D-A059-7A34D3763F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C3C22821-3E45-4ED2-BB68-30A55BA9BDAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3C22821-3E45-4ED2-BB68-30A55BA9BDAB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultados Tabu-Exactos" sheetId="1" r:id="rId1"/>
-    <sheet name="Resultados GRASP-Exactos" sheetId="2" r:id="rId2"/>
-    <sheet name="Gráfica comparativa" sheetId="3" r:id="rId3"/>
+    <sheet name="Resultados Greedy-Exactos" sheetId="4" r:id="rId1"/>
+    <sheet name="Resultados HillClimbing-Exactos" sheetId="5" r:id="rId2"/>
+    <sheet name="Resultados Tabu-Exactos" sheetId="1" r:id="rId3"/>
+    <sheet name="Resultados GRASP-Exactos" sheetId="2" r:id="rId4"/>
+    <sheet name="Gráfica comparativa" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="68">
   <si>
     <t>Instancia</t>
   </si>
@@ -239,6 +241,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Resultado Greedy</t>
   </si>
 </sst>
 </file>
@@ -580,6 +585,134 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-260A-45AE-8598-CDC738F2B8DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Greedy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('Resultados Greedy-Exactos'!$G$2,'Resultados Greedy-Exactos'!$G$12,'Resultados Greedy-Exactos'!$G$22,'Resultados Greedy-Exactos'!$G$32,'Resultados Greedy-Exactos'!$G$42,'Resultados Greedy-Exactos'!$G$52)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.11346628564637833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11022441937105612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14800137436217917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17026757374266593</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000%">
+                  <c:v>0.20294160666724373</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000%">
+                  <c:v>0.19129415211991285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E1E-43A8-B5CB-63FC635594E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Hill Climbing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('Resultados HillClimbing-Exactos'!$G$2,'Resultados HillClimbing-Exactos'!$G$12,'Resultados HillClimbing-Exactos'!$G$22,'Resultados HillClimbing-Exactos'!$G$32,'Resultados HillClimbing-Exactos'!$G$42,'Resultados HillClimbing-Exactos'!$G$52)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.4368173854801638E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11022441937105612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15676045103380323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17026757374266593</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000%">
+                  <c:v>0.20294160666724373</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000%">
+                  <c:v>0.19129415211991285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E1E-43A8-B5CB-63FC635594E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1444,15 +1577,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1796,11 +1929,2361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E29C35B-3859-4FC1-AC82-E4926B09B98F}">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>76.712249999999997</v>
+      </c>
+      <c r="D2" s="3">
+        <v>80.284970000000001</v>
+      </c>
+      <c r="E2" s="10">
+        <f>ABS(D2-C2)/D2</f>
+        <v>4.4500483714448716E-2</v>
+      </c>
+      <c r="G2" s="11">
+        <f>AVERAGE(E2:E11)</f>
+        <v>0.11346628564637833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>72.846500000000006</v>
+      </c>
+      <c r="D3" s="3">
+        <v>78.420630000000003</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E61" si="0">ABS(D3-C3)/D3</f>
+        <v>7.1079893135262959E-2</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>59.087589999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>81.20881</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.27239926308487961</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>76.032200000000003</v>
+      </c>
+      <c r="D5" s="3">
+        <v>81.519300000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>6.7310440595049245E-2</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>71.640029999999996</v>
+      </c>
+      <c r="D6" s="3">
+        <v>77.958529999999996</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>8.1049501574747509E-2</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>61.857579999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>74.068569999999994</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16486061496799514</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>56.284529999999997</v>
+      </c>
+      <c r="D8" s="3">
+        <v>77.008229999999998</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26911019770224559</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>91.607209999999995</v>
+      </c>
+      <c r="D9" s="3">
+        <v>91.607209999999995</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>82.698599999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>85.552880000000002</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>3.336275763013475E-2</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>77.28716</v>
+      </c>
+      <c r="D11" s="3">
+        <v>88.936989999999994</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13098970405901972</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>43.834319999999998</v>
+      </c>
+      <c r="D12" s="3">
+        <v>54.214179999999999</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19146024158255279</v>
+      </c>
+      <c r="G12" s="11">
+        <f>AVERAGE(E12:E21)</f>
+        <v>0.11022441937105612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>44.433570000000003</v>
+      </c>
+      <c r="D13" s="3">
+        <v>54.207369999999997</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18030389594625224</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>42.999130000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>55.747340000000001</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22867835487756008</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>50.593789999999998</v>
+      </c>
+      <c r="D15" s="3">
+        <v>53.857100000000003</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>6.0592011081175998E-2</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>55.701770000000003</v>
+      </c>
+      <c r="D16" s="3">
+        <v>56.508110000000002</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4269456189562855E-2</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>45.06391</v>
+      </c>
+      <c r="D17" s="3">
+        <v>50.834330000000001</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.11351423339306334</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>47.497160000000001</v>
+      </c>
+      <c r="D18" s="3">
+        <v>57.848889999999997</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.178944315094032</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>47.533450000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <v>50.625689999999999</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>6.108045144668639E-2</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>52.219450000000002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>52.219450000000002</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>53.260860000000001</v>
+      </c>
+      <c r="D21" s="3">
+        <v>57.479959999999998</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>7.3401234099675736E-2</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>31.62593</v>
+      </c>
+      <c r="D22" s="3">
+        <v>34.110469999999999</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>7.283804650009218E-2</v>
+      </c>
+      <c r="G22" s="11">
+        <f>AVERAGE(E22:E31)</f>
+        <v>0.14800137436217917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>30.94689</v>
+      </c>
+      <c r="D23" s="3">
+        <v>34.819920000000003</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>0.11123029576173647</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>27.811689999999999</v>
+      </c>
+      <c r="D24" s="3">
+        <v>36.06071</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22875367678562072</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>26.735389999999999</v>
+      </c>
+      <c r="D25" s="3">
+        <v>34.59243</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22713177420609079</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>32.055520000000001</v>
+      </c>
+      <c r="D26" s="3">
+        <v>35.609830000000002</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="0"/>
+        <v>9.9812607923149332E-2</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>30.15652</v>
+      </c>
+      <c r="D27" s="3">
+        <v>33.63758</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="0"/>
+        <v>0.10348723065095644</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>26.923310000000001</v>
+      </c>
+      <c r="D28" s="3">
+        <v>35.059179999999998</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="0"/>
+        <v>0.23206104649338627</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>31.260760000000001</v>
+      </c>
+      <c r="D29" s="3">
+        <v>33.783880000000003</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="0"/>
+        <v>7.4684139299571337E-2</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>28.852170000000001</v>
+      </c>
+      <c r="D30" s="3">
+        <v>35.387149999999998</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18467098932804699</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>29.85088</v>
+      </c>
+      <c r="D31" s="3">
+        <v>34.92736</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="0"/>
+        <v>0.14534393667314105</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>250</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>15.8286</v>
+      </c>
+      <c r="D32" s="3">
+        <v>20.345790000000001</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2220208701652775</v>
+      </c>
+      <c r="G32" s="11">
+        <f>AVERAGE(E32:E41)</f>
+        <v>0.17026757374266593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>250</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>18.976690000000001</v>
+      </c>
+      <c r="D33" s="3">
+        <v>20.547519999999999</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="0"/>
+        <v>7.6448641977231183E-2</v>
+      </c>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>250</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>16.73283</v>
+      </c>
+      <c r="D34" s="3">
+        <v>20.384720000000002</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17914840135160068</v>
+      </c>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>250</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>17.231639999999999</v>
+      </c>
+      <c r="D35" s="3">
+        <v>19.806760000000001</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13001217766055639</v>
+      </c>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>250</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>16.021730000000002</v>
+      </c>
+      <c r="D36" s="3">
+        <v>20.956630000000001</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2354815635910926</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>250</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>17.36056</v>
+      </c>
+      <c r="D37" s="3">
+        <v>20.08785</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13576813845185026</v>
+      </c>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>250</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>17.839649999999999</v>
+      </c>
+      <c r="D38" s="3">
+        <v>20.544309999999999</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1316500773206791</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>250</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>15.822660000000001</v>
+      </c>
+      <c r="D39" s="3">
+        <v>20.322690000000001</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22142885612091709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>250</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>16.460850000000001</v>
+      </c>
+      <c r="D40" s="3">
+        <v>20.17633</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18415043766631492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>250</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>16.12452</v>
+      </c>
+      <c r="D41" s="3">
+        <v>19.822790000000001</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18656657312113989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>500</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>10.836209999999999</v>
+      </c>
+      <c r="D42" s="3">
+        <v>13.71912</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="0"/>
+        <v>0.21013811381488032</v>
+      </c>
+      <c r="G42" s="10">
+        <f>AVERAGE(E42:E51)</f>
+        <v>0.20294160666724373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>500</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>11.21072</v>
+      </c>
+      <c r="D43" s="3">
+        <v>13.935879999999999</v>
+      </c>
+      <c r="E43" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19554990427586913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>500</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>10.97606</v>
+      </c>
+      <c r="D44" s="3">
+        <v>13.770989999999999</v>
+      </c>
+      <c r="E44" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2029578120382049</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>500</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>11.03593</v>
+      </c>
+      <c r="D45" s="3">
+        <v>13.95346</v>
+      </c>
+      <c r="E45" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20909007514981942</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>500</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>11.131410000000001</v>
+      </c>
+      <c r="D46" s="3">
+        <v>13.769080000000001</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19156472327853422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>500</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>11.01469</v>
+      </c>
+      <c r="D47" s="3">
+        <v>13.89026</v>
+      </c>
+      <c r="E47" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20702060292607913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>500</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>11.063409999999999</v>
+      </c>
+      <c r="D48" s="3">
+        <v>13.78978</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19770946309513285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>500</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>11.06908</v>
+      </c>
+      <c r="D49" s="3">
+        <v>14.100860000000001</v>
+      </c>
+      <c r="E49" s="10">
+        <f t="shared" si="0"/>
+        <v>0.21500674426949853</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>500</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>11.311500000000001</v>
+      </c>
+      <c r="D50" s="3">
+        <v>13.71674</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17535070286379995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>500</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>10.823259999999999</v>
+      </c>
+      <c r="D51" s="3">
+        <v>13.965999999999999</v>
+      </c>
+      <c r="E51" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22502792496061866</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>7.6959799999999996</v>
+      </c>
+      <c r="D52">
+        <v>9.5818700000000003</v>
+      </c>
+      <c r="E52" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19681857507981226</v>
+      </c>
+      <c r="G52" s="10">
+        <f>AVERAGE(E52:E61)</f>
+        <v>0.19129415211991285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>7.6154700000000002</v>
+      </c>
+      <c r="D53">
+        <v>9.5038400000000003</v>
+      </c>
+      <c r="E53" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19869547467129076</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1000</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>7.7444800000000003</v>
+      </c>
+      <c r="D54" s="4">
+        <v>9.4111499999999992</v>
+      </c>
+      <c r="E54" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17709525403377899</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1000</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>7.8064999999999998</v>
+      </c>
+      <c r="D55" s="4">
+        <v>9.5068999999999999</v>
+      </c>
+      <c r="E55" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17885956515793794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1000</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>8.0018200000000004</v>
+      </c>
+      <c r="D56" s="4">
+        <v>9.6020699999999994</v>
+      </c>
+      <c r="E56" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16665677296666231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1000</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>7.5548099999999998</v>
+      </c>
+      <c r="D57" s="4">
+        <v>9.5215700000000005</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20655837220122319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>7.7302099999999996</v>
+      </c>
+      <c r="D58" s="5">
+        <v>9.5524400000000007</v>
+      </c>
+      <c r="E58" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19076068522806749</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1000</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>7.6838100000000003</v>
+      </c>
+      <c r="D59" s="4">
+        <v>9.5225200000000001</v>
+      </c>
+      <c r="E59" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19309069448003258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1000</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>7.7191599999999996</v>
+      </c>
+      <c r="D60" s="6">
+        <v>9.5343199999999992</v>
+      </c>
+      <c r="E60" s="10">
+        <f t="shared" si="0"/>
+        <v>0.190381694761661</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1000</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>7.4645200000000003</v>
+      </c>
+      <c r="D61" s="5">
+        <v>9.4971399999999999</v>
+      </c>
+      <c r="E61" s="10">
+        <f t="shared" si="0"/>
+        <v>0.214024432618662</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBAA0E8-D306-429E-BC18-CFF05B77FFEF}">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>76.712249999999997</v>
+      </c>
+      <c r="D2" s="3">
+        <v>80.284970000000001</v>
+      </c>
+      <c r="E2" s="10">
+        <f>ABS(D2-C2)/D2</f>
+        <v>4.4500483714448716E-2</v>
+      </c>
+      <c r="G2" s="11">
+        <f>AVERAGE(E2:E11)</f>
+        <v>5.4368173854801638E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>78.420630000000003</v>
+      </c>
+      <c r="D3" s="3">
+        <v>78.420630000000003</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E61" si="0">ABS(D3-C3)/D3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>59.087589999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>81.20881</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.27239926308487961</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>81.519300000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>81.519300000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>77.958529999999996</v>
+      </c>
+      <c r="D6" s="3">
+        <v>77.958529999999996</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>61.857579999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>74.068569999999994</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16486061496799514</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>76.879390000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>77.008229999999998</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6730679305315384E-3</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>91.607209999999995</v>
+      </c>
+      <c r="D9" s="3">
+        <v>91.607209999999995</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>82.698599999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>85.552880000000002</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>3.336275763013475E-2</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>86.545869999999994</v>
+      </c>
+      <c r="D11" s="3">
+        <v>88.936989999999994</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6885551220026685E-2</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>43.834319999999998</v>
+      </c>
+      <c r="D12" s="3">
+        <v>54.214179999999999</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19146024158255279</v>
+      </c>
+      <c r="G12" s="11">
+        <f>AVERAGE(E12:E21)</f>
+        <v>0.11022441937105612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>44.433570000000003</v>
+      </c>
+      <c r="D13" s="3">
+        <v>54.207369999999997</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18030389594625224</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>42.999130000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>55.747340000000001</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22867835487756008</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>50.593789999999998</v>
+      </c>
+      <c r="D15" s="3">
+        <v>53.857100000000003</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>6.0592011081175998E-2</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>55.701770000000003</v>
+      </c>
+      <c r="D16" s="3">
+        <v>56.508110000000002</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4269456189562855E-2</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>45.06391</v>
+      </c>
+      <c r="D17" s="3">
+        <v>50.834330000000001</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.11351423339306334</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>47.497160000000001</v>
+      </c>
+      <c r="D18" s="3">
+        <v>57.848889999999997</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.178944315094032</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>47.533450000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <v>50.625689999999999</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>6.108045144668639E-2</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>52.219450000000002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>52.219450000000002</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>53.260860000000001</v>
+      </c>
+      <c r="D21" s="3">
+        <v>57.479959999999998</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>7.3401234099675736E-2</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>30.94689</v>
+      </c>
+      <c r="D22" s="3">
+        <v>34.110469999999999</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>9.2745130747245635E-2</v>
+      </c>
+      <c r="G22" s="11">
+        <f>AVERAGE(E22:E31)</f>
+        <v>0.15676045103380323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>27.811689999999999</v>
+      </c>
+      <c r="D23" s="3">
+        <v>34.819920000000003</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20127070941001599</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>26.735389999999999</v>
+      </c>
+      <c r="D24" s="3">
+        <v>36.06071</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="0"/>
+        <v>0.25860056554626909</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>32.055520000000001</v>
+      </c>
+      <c r="D25" s="3">
+        <v>34.59243</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="0"/>
+        <v>7.3337143415481337E-2</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>30.15652</v>
+      </c>
+      <c r="D26" s="3">
+        <v>35.609830000000002</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15314057944112627</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>26.923310000000001</v>
+      </c>
+      <c r="D27" s="3">
+        <v>33.63758</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19960621424014449</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>31.260760000000001</v>
+      </c>
+      <c r="D28" s="3">
+        <v>35.059179999999998</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="0"/>
+        <v>0.10834309302157086</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>28.852170000000001</v>
+      </c>
+      <c r="D29" s="3">
+        <v>33.783880000000003</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="0"/>
+        <v>0.14597820025408573</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>29.85088</v>
+      </c>
+      <c r="D30" s="3">
+        <v>35.387149999999998</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15644859786673973</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>28.7056</v>
+      </c>
+      <c r="D31" s="3">
+        <v>34.92736</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17813427639535309</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>250</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>15.8286</v>
+      </c>
+      <c r="D32" s="3">
+        <v>20.345790000000001</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2220208701652775</v>
+      </c>
+      <c r="G32" s="11">
+        <f>AVERAGE(E32:E41)</f>
+        <v>0.17026757374266593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>250</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>18.976690000000001</v>
+      </c>
+      <c r="D33" s="3">
+        <v>20.547519999999999</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="0"/>
+        <v>7.6448641977231183E-2</v>
+      </c>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>250</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>16.73283</v>
+      </c>
+      <c r="D34" s="3">
+        <v>20.384720000000002</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17914840135160068</v>
+      </c>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>250</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>17.231639999999999</v>
+      </c>
+      <c r="D35" s="3">
+        <v>19.806760000000001</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13001217766055639</v>
+      </c>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>250</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>16.021730000000002</v>
+      </c>
+      <c r="D36" s="3">
+        <v>20.956630000000001</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2354815635910926</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>250</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>17.36056</v>
+      </c>
+      <c r="D37" s="3">
+        <v>20.08785</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13576813845185026</v>
+      </c>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>250</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>17.839649999999999</v>
+      </c>
+      <c r="D38" s="3">
+        <v>20.544309999999999</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1316500773206791</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>250</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>15.822660000000001</v>
+      </c>
+      <c r="D39" s="3">
+        <v>20.322690000000001</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22142885612091709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>250</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>16.460850000000001</v>
+      </c>
+      <c r="D40" s="3">
+        <v>20.17633</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18415043766631492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>250</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>16.12452</v>
+      </c>
+      <c r="D41" s="3">
+        <v>19.822790000000001</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18656657312113989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>500</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>10.836209999999999</v>
+      </c>
+      <c r="D42" s="3">
+        <v>13.71912</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="0"/>
+        <v>0.21013811381488032</v>
+      </c>
+      <c r="G42" s="10">
+        <f>AVERAGE(E42:E51)</f>
+        <v>0.20294160666724373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>500</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>11.21072</v>
+      </c>
+      <c r="D43" s="3">
+        <v>13.935879999999999</v>
+      </c>
+      <c r="E43" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19554990427586913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>500</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>10.97606</v>
+      </c>
+      <c r="D44" s="3">
+        <v>13.770989999999999</v>
+      </c>
+      <c r="E44" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2029578120382049</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>500</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>11.03593</v>
+      </c>
+      <c r="D45" s="3">
+        <v>13.95346</v>
+      </c>
+      <c r="E45" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20909007514981942</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>500</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>11.131410000000001</v>
+      </c>
+      <c r="D46" s="3">
+        <v>13.769080000000001</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19156472327853422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>500</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>11.01469</v>
+      </c>
+      <c r="D47" s="3">
+        <v>13.89026</v>
+      </c>
+      <c r="E47" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20702060292607913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>500</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>11.063409999999999</v>
+      </c>
+      <c r="D48" s="3">
+        <v>13.78978</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19770946309513285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>500</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>11.06908</v>
+      </c>
+      <c r="D49" s="3">
+        <v>14.100860000000001</v>
+      </c>
+      <c r="E49" s="10">
+        <f t="shared" si="0"/>
+        <v>0.21500674426949853</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>500</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>11.311500000000001</v>
+      </c>
+      <c r="D50" s="3">
+        <v>13.71674</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17535070286379995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>500</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>10.823259999999999</v>
+      </c>
+      <c r="D51" s="3">
+        <v>13.965999999999999</v>
+      </c>
+      <c r="E51" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22502792496061866</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>7.6959799999999996</v>
+      </c>
+      <c r="D52">
+        <v>9.5818700000000003</v>
+      </c>
+      <c r="E52" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19681857507981226</v>
+      </c>
+      <c r="G52" s="10">
+        <f>AVERAGE(E52:E61)</f>
+        <v>0.19129415211991285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>7.6154700000000002</v>
+      </c>
+      <c r="D53">
+        <v>9.5038400000000003</v>
+      </c>
+      <c r="E53" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19869547467129076</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1000</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>7.7444800000000003</v>
+      </c>
+      <c r="D54" s="4">
+        <v>9.4111499999999992</v>
+      </c>
+      <c r="E54" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17709525403377899</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1000</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>7.8064999999999998</v>
+      </c>
+      <c r="D55" s="4">
+        <v>9.5068999999999999</v>
+      </c>
+      <c r="E55" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17885956515793794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1000</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>8.0018200000000004</v>
+      </c>
+      <c r="D56" s="4">
+        <v>9.6020699999999994</v>
+      </c>
+      <c r="E56" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16665677296666231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1000</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>7.5548099999999998</v>
+      </c>
+      <c r="D57" s="4">
+        <v>9.5215700000000005</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20655837220122319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>7.7302099999999996</v>
+      </c>
+      <c r="D58" s="5">
+        <v>9.5524400000000007</v>
+      </c>
+      <c r="E58" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19076068522806749</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1000</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>7.6838100000000003</v>
+      </c>
+      <c r="D59" s="4">
+        <v>9.5225200000000001</v>
+      </c>
+      <c r="E59" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19309069448003258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1000</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>7.7191599999999996</v>
+      </c>
+      <c r="D60" s="6">
+        <v>9.5343199999999992</v>
+      </c>
+      <c r="E60" s="10">
+        <f t="shared" si="0"/>
+        <v>0.190381694761661</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1000</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>7.4645200000000003</v>
+      </c>
+      <c r="D61" s="5">
+        <v>9.4971399999999999</v>
+      </c>
+      <c r="E61" s="10">
+        <f t="shared" si="0"/>
+        <v>0.214024432618662</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D352FE3-BDA6-45A5-B0DD-CB3ABF2FCFE0}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2974,12 +5457,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2494C6-E565-4DDC-80DA-B313E62A0741}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:C61"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4120,12 +6603,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F127C9B-316E-4969-8C68-C3FDC9010DE7}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Comparacion_resultados.xlsx
+++ b/src/Comparacion_resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mer\Desktop\proyecto\mdp\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4B0F60-50D6-4D7D-A059-7A34D3763F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0973CB93-9D26-4E62-BBE7-BD5FF333CB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3C22821-3E45-4ED2-BB68-30A55BA9BDAB}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="3" activeTab="4" xr2:uid="{C3C22821-3E45-4ED2-BB68-30A55BA9BDAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados Greedy-Exactos" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="69">
   <si>
     <t>Instancia</t>
   </si>
@@ -244,19 +244,19 @@
   </si>
   <si>
     <t>Resultado Greedy</t>
+  </si>
+  <si>
+    <t>Resultado Hill Climbing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000000E+00"/>
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
-    <numFmt numFmtId="169" formatCode="0.000000%"/>
+    <numFmt numFmtId="166" formatCode="0.000000E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -341,9 +341,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,25 +492,25 @@
             <c:numRef>
               <c:f>('Resultados Tabu-Exactos'!$G$2,'Resultados Tabu-Exactos'!$G$12,'Resultados Tabu-Exactos'!$G$22,'Resultados Tabu-Exactos'!$G$32,'Resultados Tabu-Exactos'!$G$42,'Resultados Tabu-Exactos'!$G$52)</c:f>
               <c:numCache>
-                <c:formatCode>0.000000%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.8092104292512536E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12289381279610172</c:v>
+                  <c:v>9.1140863036486802E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16110982051950726</c:v>
+                  <c:v>0.14489643781916961</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.0000%">
-                  <c:v>0.20281478456173779</c:v>
+                <c:pt idx="4">
+                  <c:v>0.19389287458980292</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.0000%">
-                  <c:v>0.2034503248416189</c:v>
+                <c:pt idx="5">
+                  <c:v>0.20074144922824333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -558,25 +556,25 @@
             <c:numRef>
               <c:f>('Resultados GRASP-Exactos'!$G$2,'Resultados GRASP-Exactos'!$G$12,'Resultados GRASP-Exactos'!$G$22,'Resultados GRASP-Exactos'!$G$32,'Resultados GRASP-Exactos'!$G$42,'Resultados GRASP-Exactos'!$G$52)</c:f>
               <c:numCache>
-                <c:formatCode>0.0000%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.099084151606586E-2</c:v>
+                  <c:v>3.6889243942036772E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2351939119009643E-2</c:v>
+                  <c:v>2.9119228801684255E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5840313779894853E-2</c:v>
+                  <c:v>5.2190535014330776E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12357951182632912</c:v>
+                  <c:v>8.1057511324882939E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14250542637769609</c:v>
+                  <c:v>0.11586530661351375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,25 +620,25 @@
             <c:numRef>
               <c:f>('Resultados Greedy-Exactos'!$G$2,'Resultados Greedy-Exactos'!$G$12,'Resultados Greedy-Exactos'!$G$22,'Resultados Greedy-Exactos'!$G$32,'Resultados Greedy-Exactos'!$G$42,'Resultados Greedy-Exactos'!$G$52)</c:f>
               <c:numCache>
-                <c:formatCode>0.000000%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.11346628564637833</c:v>
+                  <c:v>0.16380875442923779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11022441937105612</c:v>
+                  <c:v>0.11551350637494144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14800137436217917</c:v>
+                  <c:v>0.13907218906146865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17026757374266593</c:v>
+                  <c:v>0.17642831355158273</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.0000%">
-                  <c:v>0.20294160666724373</c:v>
+                <c:pt idx="4">
+                  <c:v>0.18001398080337336</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.0000%">
-                  <c:v>0.19129415211991285</c:v>
+                <c:pt idx="5">
+                  <c:v>0.18730009411279053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,25 +684,25 @@
             <c:numRef>
               <c:f>('Resultados HillClimbing-Exactos'!$G$2,'Resultados HillClimbing-Exactos'!$G$12,'Resultados HillClimbing-Exactos'!$G$22,'Resultados HillClimbing-Exactos'!$G$32,'Resultados HillClimbing-Exactos'!$G$42,'Resultados HillClimbing-Exactos'!$G$52)</c:f>
               <c:numCache>
-                <c:formatCode>0.000000%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.4368173854801638E-2</c:v>
+                  <c:v>4.1535969483705956E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11022441937105612</c:v>
+                  <c:v>5.6719910766570555E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15676045103380323</c:v>
+                  <c:v>9.2243749535013644E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17026757374266593</c:v>
+                  <c:v>0.1354700749423669</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.0000%">
-                  <c:v>0.20294160666724373</c:v>
+                <c:pt idx="4">
+                  <c:v>0.14779887662462646</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.0000%">
-                  <c:v>0.19129415211991285</c:v>
+                <c:pt idx="5">
+                  <c:v>0.15694167053185232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1932,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E29C35B-3859-4FC1-AC82-E4926B09B98F}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,18 +1972,18 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>76.712249999999997</v>
+        <v>54.234549999999999</v>
       </c>
       <c r="D2" s="3">
         <v>80.284970000000001</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <f>ABS(D2-C2)/D2</f>
-        <v>4.4500483714448716E-2</v>
-      </c>
-      <c r="G2" s="11">
+        <v>0.32447443151563737</v>
+      </c>
+      <c r="G2" s="9">
         <f>AVERAGE(E2:E11)</f>
-        <v>0.11346628564637833</v>
+        <v>0.16380875442923779</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2001,11 +1999,11 @@
       <c r="D3" s="3">
         <v>78.420630000000003</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <f t="shared" ref="E3:E61" si="0">ABS(D3-C3)/D3</f>
         <v>7.1079893135262959E-2</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2015,16 +2013,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>59.087589999999999</v>
+        <v>66.643889999999999</v>
       </c>
       <c r="D4" s="3">
         <v>81.20881</v>
       </c>
-      <c r="E4" s="10">
-        <f t="shared" si="0"/>
-        <v>0.27239926308487961</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17935147676711433</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2034,16 +2032,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>76.032200000000003</v>
+        <v>76.349540000000005</v>
       </c>
       <c r="D5" s="3">
         <v>81.519300000000001</v>
       </c>
-      <c r="E5" s="10">
-        <f t="shared" si="0"/>
-        <v>6.7310440595049245E-2</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>6.3417620121860668E-2</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2053,16 +2051,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>71.640029999999996</v>
+        <v>56.264969999999998</v>
       </c>
       <c r="D6" s="3">
         <v>77.958529999999996</v>
       </c>
-      <c r="E6" s="10">
-        <f t="shared" si="0"/>
-        <v>8.1049501574747509E-2</v>
-      </c>
-      <c r="G6" s="9"/>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.27827051125771612</v>
+      </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2072,16 +2070,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>61.857579999999999</v>
+        <v>69.177930000000003</v>
       </c>
       <c r="D7" s="3">
         <v>74.068569999999994</v>
       </c>
-      <c r="E7" s="10">
-        <f t="shared" si="0"/>
-        <v>0.16486061496799514</v>
-      </c>
-      <c r="G7" s="9"/>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>6.6028546251129069E-2</v>
+      </c>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2091,16 +2089,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>56.284529999999997</v>
+        <v>63.838520000000003</v>
       </c>
       <c r="D8" s="3">
         <v>77.008229999999998</v>
       </c>
-      <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>0.26911019770224559</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17101691598417462</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2110,16 +2108,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>91.607209999999995</v>
+        <v>82.711830000000006</v>
       </c>
       <c r="D9" s="3">
         <v>91.607209999999995</v>
       </c>
-      <c r="E9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="9"/>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>9.7103492181455905E-2</v>
+      </c>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2129,16 +2127,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>82.698599999999999</v>
+        <v>84.8476</v>
       </c>
       <c r="D10" s="3">
         <v>85.552880000000002</v>
       </c>
-      <c r="E10" s="10">
-        <f t="shared" si="0"/>
-        <v>3.336275763013475E-2</v>
-      </c>
-      <c r="G10" s="9"/>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>8.2437902733374004E-3</v>
+      </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2148,16 +2146,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>77.28716</v>
+        <v>55.2209</v>
       </c>
       <c r="D11" s="3">
         <v>88.936989999999994</v>
       </c>
-      <c r="E11" s="10">
-        <f t="shared" si="0"/>
-        <v>0.13098970405901972</v>
-      </c>
-      <c r="G11" s="9"/>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.37910086680468946</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2167,18 +2165,18 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>43.834319999999998</v>
+        <v>48.224209999999999</v>
       </c>
       <c r="D12" s="3">
         <v>54.214179999999999</v>
       </c>
-      <c r="E12" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19146024158255279</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11048714561393347</v>
+      </c>
+      <c r="G12" s="9">
         <f>AVERAGE(E12:E21)</f>
-        <v>0.11022441937105612</v>
+        <v>0.11551350637494144</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2189,16 +2187,16 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>44.433570000000003</v>
+        <v>45.674340000000001</v>
       </c>
       <c r="D13" s="3">
         <v>54.207369999999997</v>
       </c>
-      <c r="E13" s="10">
-        <f t="shared" si="0"/>
-        <v>0.18030389594625224</v>
-      </c>
-      <c r="G13" s="9"/>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15741457296304906</v>
+      </c>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2208,16 +2206,16 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>42.999130000000001</v>
+        <v>49.618070000000003</v>
       </c>
       <c r="D14" s="3">
         <v>55.747340000000001</v>
       </c>
-      <c r="E14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.22867835487756008</v>
-      </c>
-      <c r="G14" s="9"/>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10994730869670191</v>
+      </c>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2227,16 +2225,16 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>50.593789999999998</v>
+        <v>50.48836</v>
       </c>
       <c r="D15" s="3">
         <v>53.857100000000003</v>
       </c>
-      <c r="E15" s="10">
-        <f t="shared" si="0"/>
-        <v>6.0592011081175998E-2</v>
-      </c>
-      <c r="G15" s="9"/>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>6.2549598845834664E-2</v>
+      </c>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2246,16 +2244,16 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>55.701770000000003</v>
+        <v>49.69417</v>
       </c>
       <c r="D16" s="3">
         <v>56.508110000000002</v>
       </c>
-      <c r="E16" s="10">
-        <f t="shared" si="0"/>
-        <v>1.4269456189562855E-2</v>
-      </c>
-      <c r="G16" s="9"/>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1205833994447877</v>
+      </c>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -2265,16 +2263,16 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>45.06391</v>
+        <v>44.712829999999997</v>
       </c>
       <c r="D17" s="3">
         <v>50.834330000000001</v>
       </c>
-      <c r="E17" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11351423339306334</v>
-      </c>
-      <c r="G17" s="9"/>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12042058978646919</v>
+      </c>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2284,16 +2282,16 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>47.497160000000001</v>
+        <v>54.290689999999998</v>
       </c>
       <c r="D18" s="3">
         <v>57.848889999999997</v>
       </c>
-      <c r="E18" s="10">
-        <f t="shared" si="0"/>
-        <v>0.178944315094032</v>
-      </c>
-      <c r="G18" s="9"/>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>6.1508526784178563E-2</v>
+      </c>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2308,11 +2306,11 @@
       <c r="D19" s="3">
         <v>50.625689999999999</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <f t="shared" si="0"/>
         <v>6.108045144668639E-2</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2322,16 +2320,16 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>52.219450000000002</v>
+        <v>44.147039999999997</v>
       </c>
       <c r="D20" s="3">
         <v>52.219450000000002</v>
       </c>
-      <c r="E20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="9"/>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15458627005837872</v>
+      </c>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2341,16 +2339,16 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>53.260860000000001</v>
+        <v>46.18186</v>
       </c>
       <c r="D21" s="3">
         <v>57.479959999999998</v>
       </c>
-      <c r="E21" s="10">
-        <f t="shared" si="0"/>
-        <v>7.3401234099675736E-2</v>
-      </c>
-      <c r="G21" s="9"/>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19655720010939462</v>
+      </c>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -2359,19 +2357,19 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8">
-        <v>31.62593</v>
+      <c r="C22">
+        <v>32.885170000000002</v>
       </c>
       <c r="D22" s="3">
         <v>34.110469999999999</v>
       </c>
-      <c r="E22" s="10">
-        <f t="shared" si="0"/>
-        <v>7.283804650009218E-2</v>
-      </c>
-      <c r="G22" s="11">
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5921522042938643E-2</v>
+      </c>
+      <c r="G22" s="9">
         <f>AVERAGE(E22:E31)</f>
-        <v>0.14800137436217917</v>
+        <v>0.13907218906146865</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2382,16 +2380,16 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>30.94689</v>
+        <v>29.076530000000002</v>
       </c>
       <c r="D23" s="3">
         <v>34.819920000000003</v>
       </c>
-      <c r="E23" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11123029576173647</v>
-      </c>
-      <c r="G23" s="9"/>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16494552543486604</v>
+      </c>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2401,16 +2399,16 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>27.811689999999999</v>
+        <v>30.37857</v>
       </c>
       <c r="D24" s="3">
         <v>36.06071</v>
       </c>
-      <c r="E24" s="10">
-        <f t="shared" si="0"/>
-        <v>0.22875367678562072</v>
-      </c>
-      <c r="G24" s="9"/>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15757149540316873</v>
+      </c>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2420,16 +2418,16 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>26.735389999999999</v>
+        <v>31.851849999999999</v>
       </c>
       <c r="D25" s="3">
         <v>34.59243</v>
       </c>
-      <c r="E25" s="10">
-        <f t="shared" si="0"/>
-        <v>0.22713177420609079</v>
-      </c>
-      <c r="G25" s="9"/>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>7.9224847748481431E-2</v>
+      </c>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2439,16 +2437,16 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>32.055520000000001</v>
+        <v>29.384799999999998</v>
       </c>
       <c r="D26" s="3">
         <v>35.609830000000002</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" si="0"/>
-        <v>9.9812607923149332E-2</v>
-      </c>
-      <c r="G26" s="9"/>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17481212350634651</v>
+      </c>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2458,16 +2456,16 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>30.15652</v>
+        <v>28.12415</v>
       </c>
       <c r="D27" s="3">
         <v>33.63758</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="0"/>
-        <v>0.10348723065095644</v>
-      </c>
-      <c r="G27" s="9"/>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16390685655745746</v>
+      </c>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2477,16 +2475,16 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>26.923310000000001</v>
+        <v>30.409690000000001</v>
       </c>
       <c r="D28" s="3">
         <v>35.059179999999998</v>
       </c>
-      <c r="E28" s="10">
-        <f t="shared" si="0"/>
-        <v>0.23206104649338627</v>
-      </c>
-      <c r="G28" s="9"/>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13261833277332774</v>
+      </c>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2496,16 +2494,16 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>31.260760000000001</v>
+        <v>30.016539999999999</v>
       </c>
       <c r="D29" s="3">
         <v>33.783880000000003</v>
       </c>
-      <c r="E29" s="10">
-        <f t="shared" si="0"/>
-        <v>7.4684139299571337E-2</v>
-      </c>
-      <c r="G29" s="9"/>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11151294641112874</v>
+      </c>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2515,16 +2513,16 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>28.852170000000001</v>
+        <v>29.85088</v>
       </c>
       <c r="D30" s="3">
         <v>35.387149999999998</v>
       </c>
-      <c r="E30" s="10">
-        <f t="shared" si="0"/>
-        <v>0.18467098932804699</v>
-      </c>
-      <c r="G30" s="9"/>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15644859786673973</v>
+      </c>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -2534,16 +2532,16 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>29.85088</v>
+        <v>27.461300000000001</v>
       </c>
       <c r="D31" s="3">
         <v>34.92736</v>
       </c>
-      <c r="E31" s="10">
-        <f t="shared" si="0"/>
-        <v>0.14534393667314105</v>
-      </c>
-      <c r="G31" s="9"/>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.21375964287023122</v>
+      </c>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -2553,18 +2551,18 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>15.8286</v>
+        <v>16.619150000000001</v>
       </c>
       <c r="D32" s="3">
         <v>20.345790000000001</v>
       </c>
-      <c r="E32" s="10">
-        <f t="shared" si="0"/>
-        <v>0.2220208701652775</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18316516586478085</v>
+      </c>
+      <c r="G32" s="9">
         <f>AVERAGE(E32:E41)</f>
-        <v>0.17026757374266593</v>
+        <v>0.17642831355158273</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2575,16 +2573,16 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>18.976690000000001</v>
+        <v>16.737490000000001</v>
       </c>
       <c r="D33" s="3">
         <v>20.547519999999999</v>
       </c>
-      <c r="E33" s="10">
-        <f t="shared" si="0"/>
-        <v>7.6448641977231183E-2</v>
-      </c>
-      <c r="G33" s="9"/>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18542529706748054</v>
+      </c>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -2594,16 +2592,16 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>16.73283</v>
+        <v>15.76793</v>
       </c>
       <c r="D34" s="3">
         <v>20.384720000000002</v>
       </c>
-      <c r="E34" s="10">
-        <f t="shared" si="0"/>
-        <v>0.17914840135160068</v>
-      </c>
-      <c r="G34" s="9"/>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.22648287540863948</v>
+      </c>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -2613,16 +2611,16 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>17.231639999999999</v>
+        <v>16.322849999999999</v>
       </c>
       <c r="D35" s="3">
         <v>19.806760000000001</v>
       </c>
-      <c r="E35" s="10">
-        <f t="shared" si="0"/>
-        <v>0.13001217766055639</v>
-      </c>
-      <c r="G35" s="9"/>
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17589499746551185</v>
+      </c>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -2632,16 +2630,16 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>16.021730000000002</v>
+        <v>16.569099999999999</v>
       </c>
       <c r="D36" s="3">
         <v>20.956630000000001</v>
       </c>
-      <c r="E36" s="10">
-        <f t="shared" si="0"/>
-        <v>0.2354815635910926</v>
-      </c>
-      <c r="G36" s="9"/>
+      <c r="E36" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20936238316943143</v>
+      </c>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -2651,16 +2649,16 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>17.36056</v>
+        <v>17.42062</v>
       </c>
       <c r="D37" s="3">
         <v>20.08785</v>
       </c>
-      <c r="E37" s="10">
-        <f t="shared" si="0"/>
-        <v>0.13576813845185026</v>
-      </c>
-      <c r="G37" s="9"/>
+      <c r="E37" s="9">
+        <f t="shared" si="0"/>
+        <v>0.132778271442688</v>
+      </c>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -2670,14 +2668,14 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>17.839649999999999</v>
+        <v>17.727900000000002</v>
       </c>
       <c r="D38" s="3">
         <v>20.544309999999999</v>
       </c>
-      <c r="E38" s="10">
-        <f t="shared" si="0"/>
-        <v>0.1316500773206791</v>
+      <c r="E38" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13708953963408835</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2688,14 +2686,14 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>15.822660000000001</v>
+        <v>16.713080000000001</v>
       </c>
       <c r="D39" s="3">
         <v>20.322690000000001</v>
       </c>
-      <c r="E39" s="10">
-        <f t="shared" si="0"/>
-        <v>0.22142885612091709</v>
+      <c r="E39" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17761477442208681</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2706,14 +2704,14 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>16.460850000000001</v>
+        <v>17.286950000000001</v>
       </c>
       <c r="D40" s="3">
         <v>20.17633</v>
       </c>
-      <c r="E40" s="10">
-        <f t="shared" si="0"/>
-        <v>0.18415043766631492</v>
+      <c r="E40" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14320642059284316</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2724,14 +2722,14 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>16.12452</v>
+        <v>15.991770000000001</v>
       </c>
       <c r="D41" s="3">
         <v>19.822790000000001</v>
       </c>
-      <c r="E41" s="10">
-        <f t="shared" si="0"/>
-        <v>0.18656657312113989</v>
+      <c r="E41" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19326341044827697</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2742,18 +2740,18 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>10.836209999999999</v>
+        <v>11.29365</v>
       </c>
       <c r="D42" s="3">
         <v>13.71912</v>
       </c>
-      <c r="E42" s="10">
-        <f t="shared" si="0"/>
-        <v>0.21013811381488032</v>
-      </c>
-      <c r="G42" s="10">
+      <c r="E42" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17679486730927352</v>
+      </c>
+      <c r="G42" s="9">
         <f>AVERAGE(E42:E51)</f>
-        <v>0.20294160666724373</v>
+        <v>0.18001398080337336</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2764,14 +2762,14 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>11.21072</v>
+        <v>11.32882</v>
       </c>
       <c r="D43" s="3">
         <v>13.935879999999999</v>
       </c>
-      <c r="E43" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19554990427586913</v>
+      <c r="E43" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18707537665364504</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2782,14 +2780,14 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>10.97606</v>
+        <v>11.298690000000001</v>
       </c>
       <c r="D44" s="3">
         <v>13.770989999999999</v>
       </c>
-      <c r="E44" s="10">
-        <f t="shared" si="0"/>
-        <v>0.2029578120382049</v>
+      <c r="E44" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17952957630497146</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2800,14 +2798,14 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>11.03593</v>
+        <v>11.2841</v>
       </c>
       <c r="D45" s="3">
         <v>13.95346</v>
       </c>
-      <c r="E45" s="10">
-        <f t="shared" si="0"/>
-        <v>0.20909007514981942</v>
+      <c r="E45" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19130452231919534</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2818,14 +2816,14 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>11.131410000000001</v>
+        <v>11.299720000000001</v>
       </c>
       <c r="D46" s="3">
         <v>13.769080000000001</v>
       </c>
-      <c r="E46" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19156472327853422</v>
+      <c r="E46" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17934095814680429</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2836,14 +2834,14 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>11.01469</v>
+        <v>11.755280000000001</v>
       </c>
       <c r="D47" s="3">
         <v>13.89026</v>
       </c>
-      <c r="E47" s="10">
-        <f t="shared" si="0"/>
-        <v>0.20702060292607913</v>
+      <c r="E47" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15370338640169434</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2854,14 +2852,14 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>11.063409999999999</v>
+        <v>11.543670000000001</v>
       </c>
       <c r="D48" s="3">
         <v>13.78978</v>
       </c>
-      <c r="E48" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19770946309513285</v>
+      <c r="E48" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16288222147126349</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2872,14 +2870,14 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>11.06908</v>
+        <v>11.77763</v>
       </c>
       <c r="D49" s="3">
         <v>14.100860000000001</v>
       </c>
-      <c r="E49" s="10">
-        <f t="shared" si="0"/>
-        <v>0.21500674426949853</v>
+      <c r="E49" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16475803603468162</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2890,14 +2888,14 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>11.311500000000001</v>
+        <v>11.026300000000001</v>
       </c>
       <c r="D50" s="3">
         <v>13.71674</v>
       </c>
-      <c r="E50" s="10">
-        <f t="shared" si="0"/>
-        <v>0.17535070286379995</v>
+      <c r="E50" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1961428152753496</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2908,14 +2906,14 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>10.823259999999999</v>
+        <v>11.052580000000001</v>
       </c>
       <c r="D51" s="3">
         <v>13.965999999999999</v>
       </c>
-      <c r="E51" s="10">
-        <f t="shared" si="0"/>
-        <v>0.22502792496061866</v>
+      <c r="E51" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20860804811685513</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2926,18 +2924,18 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>7.6959799999999996</v>
+        <v>7.7933599999999998</v>
       </c>
       <c r="D52">
         <v>9.5818700000000003</v>
       </c>
-      <c r="E52" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19681857507981226</v>
-      </c>
-      <c r="G52" s="10">
+      <c r="E52" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1866556319382334</v>
+      </c>
+      <c r="G52" s="9">
         <f>AVERAGE(E52:E61)</f>
-        <v>0.19129415211991285</v>
+        <v>0.18730009411279053</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2948,14 +2946,14 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>7.6154700000000002</v>
+        <v>7.5327099999999998</v>
       </c>
       <c r="D53">
         <v>9.5038400000000003</v>
       </c>
-      <c r="E53" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19869547467129076</v>
+      <c r="E53" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20740353372952411</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2966,14 +2964,14 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>7.7444800000000003</v>
+        <v>7.8741899999999996</v>
       </c>
       <c r="D54" s="4">
         <v>9.4111499999999992</v>
       </c>
-      <c r="E54" s="10">
-        <f t="shared" si="0"/>
-        <v>0.17709525403377899</v>
+      <c r="E54" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16331266635852151</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2984,14 +2982,14 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>7.8064999999999998</v>
+        <v>7.6594300000000004</v>
       </c>
       <c r="D55" s="4">
         <v>9.5068999999999999</v>
       </c>
-      <c r="E55" s="10">
-        <f t="shared" si="0"/>
-        <v>0.17885956515793794</v>
+      <c r="E55" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19432938181741677</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3002,14 +3000,14 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>8.0018200000000004</v>
+        <v>7.90855</v>
       </c>
       <c r="D56" s="4">
         <v>9.6020699999999994</v>
       </c>
-      <c r="E56" s="10">
-        <f t="shared" si="0"/>
-        <v>0.16665677296666231</v>
+      <c r="E56" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17637030348664398</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3020,14 +3018,14 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>7.5548099999999998</v>
+        <v>8.0451099999999993</v>
       </c>
       <c r="D57" s="4">
         <v>9.5215700000000005</v>
       </c>
-      <c r="E57" s="10">
-        <f t="shared" si="0"/>
-        <v>0.20655837220122319</v>
+      <c r="E57" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15506476347913223</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3038,14 +3036,14 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>7.7302099999999996</v>
+        <v>7.7305200000000003</v>
       </c>
       <c r="D58" s="5">
         <v>9.5524400000000007</v>
       </c>
-      <c r="E58" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19076068522806749</v>
+      <c r="E58" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19072823278659695</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3056,14 +3054,14 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>7.6838100000000003</v>
+        <v>7.8607399999999998</v>
       </c>
       <c r="D59" s="4">
         <v>9.5225200000000001</v>
       </c>
-      <c r="E59" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19309069448003258</v>
+      <c r="E59" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17451052872558948</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3079,7 +3077,7 @@
       <c r="D60" s="6">
         <v>9.5343199999999992</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="9">
         <f t="shared" si="0"/>
         <v>0.190381694761661</v>
       </c>
@@ -3092,14 +3090,14 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>7.4645200000000003</v>
+        <v>7.2724900000000003</v>
       </c>
       <c r="D61" s="5">
         <v>9.4971399999999999</v>
       </c>
-      <c r="E61" s="10">
-        <f t="shared" si="0"/>
-        <v>0.214024432618662</v>
+      <c r="E61" s="9">
+        <f t="shared" si="0"/>
+        <v>0.23424420404458601</v>
       </c>
     </row>
   </sheetData>
@@ -3111,11 +3109,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBAA0E8-D306-429E-BC18-CFF05B77FFEF}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3125,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>62</v>
@@ -3150,13 +3152,13 @@
       <c r="D2" s="3">
         <v>80.284970000000001</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <f>ABS(D2-C2)/D2</f>
         <v>4.4500483714448716E-2</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="9">
         <f>AVERAGE(E2:E11)</f>
-        <v>5.4368173854801638E-2</v>
+        <v>4.1535969483705956E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3167,16 +3169,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>78.420630000000003</v>
+        <v>58.002749999999999</v>
       </c>
       <c r="D3" s="3">
         <v>78.420630000000003</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <f t="shared" ref="E3:E61" si="0">ABS(D3-C3)/D3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="9"/>
+        <v>0.26036363135567775</v>
+      </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3186,16 +3188,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>59.087589999999999</v>
+        <v>79.408600000000007</v>
       </c>
       <c r="D4" s="3">
         <v>81.20881</v>
       </c>
-      <c r="E4" s="10">
-        <f t="shared" si="0"/>
-        <v>0.27239926308487961</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>2.216766875416587E-2</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3205,16 +3207,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>81.519300000000001</v>
+        <v>80.855860000000007</v>
       </c>
       <c r="D5" s="3">
         <v>81.519300000000001</v>
       </c>
-      <c r="E5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>8.1384408354830597E-3</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3229,11 +3231,11 @@
       <c r="D6" s="3">
         <v>77.958529999999996</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3243,16 +3245,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>61.857579999999999</v>
+        <v>70.962919999999997</v>
       </c>
       <c r="D7" s="3">
         <v>74.068569999999994</v>
       </c>
-      <c r="E7" s="10">
-        <f t="shared" si="0"/>
-        <v>0.16486061496799514</v>
-      </c>
-      <c r="G7" s="9"/>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1929390563365775E-2</v>
+      </c>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3262,16 +3264,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>76.879390000000001</v>
+        <v>77.008229999999998</v>
       </c>
       <c r="D8" s="3">
         <v>77.008229999999998</v>
       </c>
-      <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>1.6730679305315384E-3</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3286,11 +3288,11 @@
       <c r="D9" s="3">
         <v>91.607209999999995</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3300,16 +3302,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>82.698599999999999</v>
+        <v>82.279619999999994</v>
       </c>
       <c r="D10" s="3">
         <v>85.552880000000002</v>
       </c>
-      <c r="E10" s="10">
-        <f t="shared" si="0"/>
-        <v>3.336275763013475E-2</v>
-      </c>
-      <c r="G10" s="9"/>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>3.8260079613918405E-2</v>
+      </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3319,16 +3321,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>86.545869999999994</v>
+        <v>88.936989999999994</v>
       </c>
       <c r="D11" s="3">
         <v>88.936989999999994</v>
       </c>
-      <c r="E11" s="10">
-        <f t="shared" si="0"/>
-        <v>2.6885551220026685E-2</v>
-      </c>
-      <c r="G11" s="9"/>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3338,18 +3340,18 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>43.834319999999998</v>
+        <v>51.812930000000001</v>
       </c>
       <c r="D12" s="3">
         <v>54.214179999999999</v>
       </c>
-      <c r="E12" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19146024158255279</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>4.4291917723370482E-2</v>
+      </c>
+      <c r="G12" s="9">
         <f>AVERAGE(E12:E21)</f>
-        <v>0.11022441937105612</v>
+        <v>5.6719910766570555E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3360,16 +3362,16 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>44.433570000000003</v>
+        <v>52.85651</v>
       </c>
       <c r="D13" s="3">
         <v>54.207369999999997</v>
       </c>
-      <c r="E13" s="10">
-        <f t="shared" si="0"/>
-        <v>0.18030389594625224</v>
-      </c>
-      <c r="G13" s="9"/>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4920227636943047E-2</v>
+      </c>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3379,16 +3381,16 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>42.999130000000001</v>
+        <v>45.409520000000001</v>
       </c>
       <c r="D14" s="3">
         <v>55.747340000000001</v>
       </c>
-      <c r="E14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.22867835487756008</v>
-      </c>
-      <c r="G14" s="9"/>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1854405968069508</v>
+      </c>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3398,16 +3400,16 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>50.593789999999998</v>
+        <v>53.857100000000003</v>
       </c>
       <c r="D15" s="3">
         <v>53.857100000000003</v>
       </c>
-      <c r="E15" s="10">
-        <f t="shared" si="0"/>
-        <v>6.0592011081175998E-2</v>
-      </c>
-      <c r="G15" s="9"/>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3417,16 +3419,16 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>55.701770000000003</v>
+        <v>56.508110000000002</v>
       </c>
       <c r="D16" s="3">
         <v>56.508110000000002</v>
       </c>
-      <c r="E16" s="10">
-        <f t="shared" si="0"/>
-        <v>1.4269456189562855E-2</v>
-      </c>
-      <c r="G16" s="9"/>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -3436,16 +3438,16 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>45.06391</v>
+        <v>47.005580000000002</v>
       </c>
       <c r="D17" s="3">
         <v>50.834330000000001</v>
       </c>
-      <c r="E17" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11351423339306334</v>
-      </c>
-      <c r="G17" s="9"/>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>7.5318195400627869E-2</v>
+      </c>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -3455,16 +3457,16 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>47.497160000000001</v>
+        <v>47.658940000000001</v>
       </c>
       <c r="D18" s="3">
         <v>57.848889999999997</v>
       </c>
-      <c r="E18" s="10">
-        <f t="shared" si="0"/>
-        <v>0.178944315094032</v>
-      </c>
-      <c r="G18" s="9"/>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17614771865112705</v>
+      </c>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -3479,11 +3481,11 @@
       <c r="D19" s="3">
         <v>50.625689999999999</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <f t="shared" si="0"/>
         <v>6.108045144668639E-2</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -3498,11 +3500,11 @@
       <c r="D20" s="3">
         <v>52.219450000000002</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -3512,16 +3514,16 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>53.260860000000001</v>
+        <v>57.479959999999998</v>
       </c>
       <c r="D21" s="3">
         <v>57.479959999999998</v>
       </c>
-      <c r="E21" s="10">
-        <f t="shared" si="0"/>
-        <v>7.3401234099675736E-2</v>
-      </c>
-      <c r="G21" s="9"/>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -3531,18 +3533,18 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>30.94689</v>
+        <v>32.880180000000003</v>
       </c>
       <c r="D22" s="3">
         <v>34.110469999999999</v>
       </c>
-      <c r="E22" s="10">
-        <f t="shared" si="0"/>
-        <v>9.2745130747245635E-2</v>
-      </c>
-      <c r="G22" s="11">
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>3.606781143736796E-2</v>
+      </c>
+      <c r="G22" s="9">
         <f>AVERAGE(E22:E31)</f>
-        <v>0.15676045103380323</v>
+        <v>9.2243749535013644E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3553,16 +3555,16 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>27.811689999999999</v>
+        <v>29.418009999999999</v>
       </c>
       <c r="D23" s="3">
         <v>34.819920000000003</v>
       </c>
-      <c r="E23" s="10">
-        <f t="shared" si="0"/>
-        <v>0.20127070941001599</v>
-      </c>
-      <c r="G23" s="9"/>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15513849543594596</v>
+      </c>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -3572,16 +3574,16 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>26.735389999999999</v>
+        <v>34.368319999999997</v>
       </c>
       <c r="D24" s="3">
         <v>36.06071</v>
       </c>
-      <c r="E24" s="10">
-        <f t="shared" si="0"/>
-        <v>0.25860056554626909</v>
-      </c>
-      <c r="G24" s="9"/>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>4.6931688255722172E-2</v>
+      </c>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -3591,16 +3593,16 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>32.055520000000001</v>
+        <v>32.919370000000001</v>
       </c>
       <c r="D25" s="3">
         <v>34.59243</v>
       </c>
-      <c r="E25" s="10">
-        <f t="shared" si="0"/>
-        <v>7.3337143415481337E-2</v>
-      </c>
-      <c r="G25" s="9"/>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>4.8364916832960264E-2</v>
+      </c>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -3610,16 +3612,16 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>30.15652</v>
+        <v>33.440829999999998</v>
       </c>
       <c r="D26" s="3">
         <v>35.609830000000002</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" si="0"/>
-        <v>0.15314057944112627</v>
-      </c>
-      <c r="G26" s="9"/>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>6.0910147563187016E-2</v>
+      </c>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -3629,16 +3631,16 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>26.923310000000001</v>
+        <v>31.034739999999999</v>
       </c>
       <c r="D27" s="3">
         <v>33.63758</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19960621424014449</v>
-      </c>
-      <c r="G27" s="9"/>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>7.7378931540259446E-2</v>
+      </c>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -3648,16 +3650,16 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>31.260760000000001</v>
+        <v>30.147919999999999</v>
       </c>
       <c r="D28" s="3">
         <v>35.059179999999998</v>
       </c>
-      <c r="E28" s="10">
-        <f t="shared" si="0"/>
-        <v>0.10834309302157086</v>
-      </c>
-      <c r="G28" s="9"/>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14008485081510746</v>
+      </c>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -3667,16 +3669,16 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>28.852170000000001</v>
+        <v>29.781960000000002</v>
       </c>
       <c r="D29" s="3">
         <v>33.783880000000003</v>
       </c>
-      <c r="E29" s="10">
-        <f t="shared" si="0"/>
-        <v>0.14597820025408573</v>
-      </c>
-      <c r="G29" s="9"/>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11845649463590333</v>
+      </c>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -3686,16 +3688,16 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>29.85088</v>
+        <v>28.877330000000001</v>
       </c>
       <c r="D30" s="3">
         <v>35.387149999999998</v>
       </c>
-      <c r="E30" s="10">
-        <f t="shared" si="0"/>
-        <v>0.15644859786673973</v>
-      </c>
-      <c r="G30" s="9"/>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18395999677849156</v>
+      </c>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -3705,16 +3707,16 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>28.7056</v>
+        <v>33.00132</v>
       </c>
       <c r="D31" s="3">
         <v>34.92736</v>
       </c>
-      <c r="E31" s="10">
-        <f t="shared" si="0"/>
-        <v>0.17813427639535309</v>
-      </c>
-      <c r="G31" s="9"/>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5144162055191126E-2</v>
+      </c>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -3724,18 +3726,18 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>15.8286</v>
+        <v>19.013909999999999</v>
       </c>
       <c r="D32" s="3">
         <v>20.345790000000001</v>
       </c>
-      <c r="E32" s="10">
-        <f t="shared" si="0"/>
-        <v>0.2220208701652775</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>6.5462191441079537E-2</v>
+      </c>
+      <c r="G32" s="9">
         <f>AVERAGE(E32:E41)</f>
-        <v>0.17026757374266593</v>
+        <v>0.1354700749423669</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3746,16 +3748,16 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>18.976690000000001</v>
+        <v>18.130500000000001</v>
       </c>
       <c r="D33" s="3">
         <v>20.547519999999999</v>
       </c>
-      <c r="E33" s="10">
-        <f t="shared" si="0"/>
-        <v>7.6448641977231183E-2</v>
-      </c>
-      <c r="G33" s="9"/>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11763074083879696</v>
+      </c>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -3765,16 +3767,16 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>16.73283</v>
+        <v>16.370249999999999</v>
       </c>
       <c r="D34" s="3">
         <v>20.384720000000002</v>
       </c>
-      <c r="E34" s="10">
-        <f t="shared" si="0"/>
-        <v>0.17914840135160068</v>
-      </c>
-      <c r="G34" s="9"/>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19693525346435969</v>
+      </c>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -3784,16 +3786,16 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>17.231639999999999</v>
+        <v>16.99654</v>
       </c>
       <c r="D35" s="3">
         <v>19.806760000000001</v>
       </c>
-      <c r="E35" s="10">
-        <f t="shared" si="0"/>
-        <v>0.13001217766055639</v>
-      </c>
-      <c r="G35" s="9"/>
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14188186255601629</v>
+      </c>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -3803,16 +3805,16 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>16.021730000000002</v>
+        <v>18.377859999999998</v>
       </c>
       <c r="D36" s="3">
         <v>20.956630000000001</v>
       </c>
-      <c r="E36" s="10">
-        <f t="shared" si="0"/>
-        <v>0.2354815635910926</v>
-      </c>
-      <c r="G36" s="9"/>
+      <c r="E36" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12305270456175454</v>
+      </c>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -3822,16 +3824,16 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>17.36056</v>
+        <v>16.801680000000001</v>
       </c>
       <c r="D37" s="3">
         <v>20.08785</v>
       </c>
-      <c r="E37" s="10">
-        <f t="shared" si="0"/>
-        <v>0.13576813845185026</v>
-      </c>
-      <c r="G37" s="9"/>
+      <c r="E37" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16358993122708496</v>
+      </c>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -3841,14 +3843,14 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>17.839649999999999</v>
+        <v>17.60276</v>
       </c>
       <c r="D38" s="3">
         <v>20.544309999999999</v>
       </c>
-      <c r="E38" s="10">
-        <f t="shared" si="0"/>
-        <v>0.1316500773206791</v>
+      <c r="E38" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14318076391954754</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3859,14 +3861,14 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>15.822660000000001</v>
+        <v>17.34599</v>
       </c>
       <c r="D39" s="3">
         <v>20.322690000000001</v>
       </c>
-      <c r="E39" s="10">
-        <f t="shared" si="0"/>
-        <v>0.22142885612091709</v>
+      <c r="E39" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14647175152501962</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3877,14 +3879,14 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>16.460850000000001</v>
+        <v>17.059049999999999</v>
       </c>
       <c r="D40" s="3">
         <v>20.17633</v>
       </c>
-      <c r="E40" s="10">
-        <f t="shared" si="0"/>
-        <v>0.18415043766631492</v>
+      <c r="E40" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15450183457546546</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3895,14 +3897,14 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>16.12452</v>
+        <v>17.800989999999999</v>
       </c>
       <c r="D41" s="3">
         <v>19.822790000000001</v>
       </c>
-      <c r="E41" s="10">
-        <f t="shared" si="0"/>
-        <v>0.18656657312113989</v>
+      <c r="E41" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10199371531454464</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3913,18 +3915,18 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>10.836209999999999</v>
+        <v>12.030430000000001</v>
       </c>
       <c r="D42" s="3">
         <v>13.71912</v>
       </c>
-      <c r="E42" s="10">
-        <f t="shared" si="0"/>
-        <v>0.21013811381488032</v>
-      </c>
-      <c r="G42" s="10">
+      <c r="E42" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12309025651791072</v>
+      </c>
+      <c r="G42" s="9">
         <f>AVERAGE(E42:E51)</f>
-        <v>0.20294160666724373</v>
+        <v>0.14779887662462646</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3935,14 +3937,14 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>11.21072</v>
+        <v>11.89908</v>
       </c>
       <c r="D43" s="3">
         <v>13.935879999999999</v>
       </c>
-      <c r="E43" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19554990427586913</v>
+      <c r="E43" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14615510466508033</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3953,14 +3955,14 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>10.97606</v>
+        <v>11.673030000000001</v>
       </c>
       <c r="D44" s="3">
         <v>13.770989999999999</v>
       </c>
-      <c r="E44" s="10">
-        <f t="shared" si="0"/>
-        <v>0.2029578120382049</v>
+      <c r="E44" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15234634546971559</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3971,14 +3973,14 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>11.03593</v>
+        <v>12.195970000000001</v>
       </c>
       <c r="D45" s="3">
         <v>13.95346</v>
       </c>
-      <c r="E45" s="10">
-        <f t="shared" si="0"/>
-        <v>0.20909007514981942</v>
+      <c r="E45" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12595370610586901</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3989,14 +3991,14 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>11.131410000000001</v>
+        <v>11.33731</v>
       </c>
       <c r="D46" s="3">
         <v>13.769080000000001</v>
       </c>
-      <c r="E46" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19156472327853422</v>
+      <c r="E46" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17661092825373956</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4007,14 +4009,14 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>11.01469</v>
+        <v>11.96381</v>
       </c>
       <c r="D47" s="3">
         <v>13.89026</v>
       </c>
-      <c r="E47" s="10">
-        <f t="shared" si="0"/>
-        <v>0.20702060292607913</v>
+      <c r="E47" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13869070845326142</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4025,14 +4027,14 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>11.063409999999999</v>
+        <v>11.363340000000001</v>
       </c>
       <c r="D48" s="3">
         <v>13.78978</v>
       </c>
-      <c r="E48" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19770946309513285</v>
+      <c r="E48" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17595929739270674</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4043,14 +4045,14 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>11.06908</v>
+        <v>12.13631</v>
       </c>
       <c r="D49" s="3">
         <v>14.100860000000001</v>
       </c>
-      <c r="E49" s="10">
-        <f t="shared" si="0"/>
-        <v>0.21500674426949853</v>
+      <c r="E49" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13932128962346982</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4061,14 +4063,14 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>11.311500000000001</v>
+        <v>12.11204</v>
       </c>
       <c r="D50" s="3">
         <v>13.71674</v>
       </c>
-      <c r="E50" s="10">
-        <f t="shared" si="0"/>
-        <v>0.17535070286379995</v>
+      <c r="E50" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11698843894394728</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4079,14 +4081,14 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>10.823259999999999</v>
+        <v>11.412000000000001</v>
       </c>
       <c r="D51" s="3">
         <v>13.965999999999999</v>
       </c>
-      <c r="E51" s="10">
-        <f t="shared" si="0"/>
-        <v>0.22502792496061866</v>
+      <c r="E51" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18287269082056412</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4097,18 +4099,18 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>7.6959799999999996</v>
+        <v>8.0913000000000004</v>
       </c>
       <c r="D52">
         <v>9.5818700000000003</v>
       </c>
-      <c r="E52" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19681857507981226</v>
-      </c>
-      <c r="G52" s="10">
+      <c r="E52" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15556149269401484</v>
+      </c>
+      <c r="G52" s="9">
         <f>AVERAGE(E52:E61)</f>
-        <v>0.19129415211991285</v>
+        <v>0.15694167053185232</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4119,14 +4121,14 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>7.6154700000000002</v>
+        <v>7.7288800000000002</v>
       </c>
       <c r="D53">
         <v>9.5038400000000003</v>
       </c>
-      <c r="E53" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19869547467129076</v>
+      <c r="E53" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18676240340746478</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4137,14 +4139,14 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>7.7444800000000003</v>
+        <v>7.95329</v>
       </c>
       <c r="D54" s="4">
         <v>9.4111499999999992</v>
       </c>
-      <c r="E54" s="10">
-        <f t="shared" si="0"/>
-        <v>0.17709525403377899</v>
+      <c r="E54" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1549077424119262</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4155,14 +4157,14 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>7.8064999999999998</v>
+        <v>8.1007800000000003</v>
       </c>
       <c r="D55" s="4">
         <v>9.5068999999999999</v>
       </c>
-      <c r="E55" s="10">
-        <f t="shared" si="0"/>
-        <v>0.17885956515793794</v>
+      <c r="E55" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14790520569270735</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4173,14 +4175,14 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>8.0018200000000004</v>
+        <v>7.9595700000000003</v>
       </c>
       <c r="D56" s="4">
         <v>9.6020699999999994</v>
       </c>
-      <c r="E56" s="10">
-        <f t="shared" si="0"/>
-        <v>0.16665677296666231</v>
+      <c r="E56" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17105686586329816</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4191,14 +4193,14 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>7.5548099999999998</v>
+        <v>8.1828099999999999</v>
       </c>
       <c r="D57" s="4">
         <v>9.5215700000000005</v>
       </c>
-      <c r="E57" s="10">
-        <f t="shared" si="0"/>
-        <v>0.20655837220122319</v>
+      <c r="E57" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14060286276317882</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4209,14 +4211,14 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>7.7302099999999996</v>
+        <v>8.1814900000000002</v>
       </c>
       <c r="D58" s="5">
         <v>9.5524400000000007</v>
       </c>
-      <c r="E58" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19076068522806749</v>
+      <c r="E58" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14351830527069528</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4227,14 +4229,14 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>7.6838100000000003</v>
+        <v>7.8927399999999999</v>
       </c>
       <c r="D59" s="4">
         <v>9.5225200000000001</v>
       </c>
-      <c r="E59" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19309069448003258</v>
+      <c r="E59" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1711500737199817</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4245,14 +4247,14 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>7.7191599999999996</v>
+        <v>8.0571199999999994</v>
       </c>
       <c r="D60" s="6">
         <v>9.5343199999999992</v>
       </c>
-      <c r="E60" s="10">
-        <f t="shared" si="0"/>
-        <v>0.190381694761661</v>
+      <c r="E60" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15493501371885987</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4263,14 +4265,14 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>7.4645200000000003</v>
+        <v>8.13889</v>
       </c>
       <c r="D61" s="5">
         <v>9.4971399999999999</v>
       </c>
-      <c r="E61" s="10">
-        <f t="shared" si="0"/>
-        <v>0.214024432618662</v>
+      <c r="E61" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14301673977639584</v>
       </c>
     </row>
   </sheetData>
@@ -4282,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D352FE3-BDA6-45A5-B0DD-CB3ABF2FCFE0}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4321,17 +4323,17 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>80.284970000000001</v>
       </c>
       <c r="D2" s="3">
         <v>80.284970000000001</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <f>ABS(D2-C2)/D2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="9">
         <f>AVERAGE(E2:E11)</f>
         <v>0</v>
       </c>
@@ -4343,17 +4345,17 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>78.420630000000003</v>
       </c>
       <c r="D3" s="3">
         <v>78.420630000000003</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <f t="shared" ref="E3:E61" si="0">ABS(D3-C3)/D3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -4362,17 +4364,17 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>81.20881</v>
       </c>
       <c r="D4" s="3">
         <v>81.20881</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -4381,17 +4383,17 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>81.519300000000001</v>
       </c>
       <c r="D5" s="3">
         <v>81.519300000000001</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -4400,17 +4402,17 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>77.958529999999996</v>
       </c>
       <c r="D6" s="3">
         <v>77.958529999999996</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -4419,17 +4421,17 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>74.068569999999994</v>
       </c>
       <c r="D7" s="3">
         <v>74.068569999999994</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4438,17 +4440,17 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>77.008229999999998</v>
       </c>
       <c r="D8" s="3">
         <v>77.008229999999998</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -4457,17 +4459,17 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>91.607209999999995</v>
       </c>
       <c r="D9" s="3">
         <v>91.607209999999995</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -4476,17 +4478,17 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>85.552880000000002</v>
       </c>
       <c r="D10" s="3">
         <v>85.552880000000002</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -4495,17 +4497,17 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>88.936989999999994</v>
       </c>
       <c r="D11" s="3">
         <v>88.936989999999994</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -4514,19 +4516,19 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>54.214179999999999</v>
       </c>
       <c r="D12" s="3">
         <v>54.214179999999999</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <f>AVERAGE(E12:E21)</f>
-        <v>0</v>
+        <v>1.8092104292512536E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4536,17 +4538,17 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>54.207369999999997</v>
       </c>
       <c r="D13" s="3">
         <v>54.207369999999997</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4556,17 +4558,17 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>55.747340000000001</v>
       </c>
       <c r="D14" s="3">
         <v>55.747340000000001</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -4575,17 +4577,17 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>53.857100000000003</v>
       </c>
       <c r="D15" s="3">
         <v>53.857100000000003</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4594,17 +4596,17 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>56.508110000000002</v>
       </c>
       <c r="D16" s="3">
         <v>56.508110000000002</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -4613,17 +4615,17 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8">
-        <v>50.834330000000001</v>
+      <c r="C17">
+        <v>49.914630000000002</v>
       </c>
       <c r="D17" s="3">
         <v>50.834330000000001</v>
       </c>
-      <c r="E17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="9"/>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8092104292512536E-2</v>
+      </c>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -4632,17 +4634,17 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>57.848889999999997</v>
       </c>
       <c r="D18" s="3">
         <v>57.848889999999997</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -4651,17 +4653,17 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19">
         <v>50.625689999999999</v>
       </c>
       <c r="D19" s="3">
         <v>50.625689999999999</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -4670,17 +4672,17 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>52.219450000000002</v>
       </c>
       <c r="D20" s="3">
         <v>52.219450000000002</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -4689,17 +4691,17 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>57.479959999999998</v>
       </c>
       <c r="D21" s="3">
         <v>57.479959999999998</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -4708,19 +4710,19 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8">
-        <v>31.62593</v>
+      <c r="C22">
+        <v>32.065010000000001</v>
       </c>
       <c r="D22" s="3">
         <v>34.110469999999999</v>
       </c>
-      <c r="E22" s="10">
-        <f t="shared" si="0"/>
-        <v>7.283804650009218E-2</v>
-      </c>
-      <c r="G22" s="11">
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>5.9965752450787065E-2</v>
+      </c>
+      <c r="G22" s="9">
         <f>AVERAGE(E22:E31)</f>
-        <v>0.12289381279610172</v>
+        <v>9.1140863036486802E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4730,17 +4732,17 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="8">
-        <v>29.097359999999998</v>
+      <c r="C23">
+        <v>30.278030000000001</v>
       </c>
       <c r="D23" s="3">
         <v>34.819920000000003</v>
       </c>
-      <c r="E23" s="10">
-        <f t="shared" si="0"/>
-        <v>0.16434730464630604</v>
-      </c>
-      <c r="G23" s="9"/>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13043941513938004</v>
+      </c>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -4749,17 +4751,17 @@
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="8">
-        <v>31.38738</v>
+      <c r="C24">
+        <v>32.939250000000001</v>
       </c>
       <c r="D24" s="3">
         <v>36.06071</v>
       </c>
-      <c r="E24" s="10">
-        <f t="shared" si="0"/>
-        <v>0.12959617267657791</v>
-      </c>
-      <c r="G24" s="9"/>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>8.6561246298256442E-2</v>
+      </c>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -4768,17 +4770,17 @@
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="8">
-        <v>28.987469999999998</v>
+      <c r="C25">
+        <v>30.805479999999999</v>
       </c>
       <c r="D25" s="3">
         <v>34.59243</v>
       </c>
-      <c r="E25" s="10">
-        <f t="shared" si="0"/>
-        <v>0.16202851317470332</v>
-      </c>
-      <c r="G25" s="9"/>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10947337322067287</v>
+      </c>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -4787,17 +4789,17 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="8">
-        <v>30.132300000000001</v>
+      <c r="C26">
+        <v>33.69144</v>
       </c>
       <c r="D26" s="3">
         <v>35.609830000000002</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" si="0"/>
-        <v>0.1538207287145151</v>
-      </c>
-      <c r="G26" s="9"/>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>5.3872484086557058E-2</v>
+      </c>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -4806,17 +4808,17 @@
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27">
         <v>31.19735</v>
       </c>
       <c r="D27" s="3">
         <v>33.63758</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <f t="shared" si="0"/>
         <v>7.2544755003183928E-2</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -4825,17 +4827,17 @@
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="8">
-        <v>31.052689999999998</v>
+      <c r="C28">
+        <v>32.046149999999997</v>
       </c>
       <c r="D28" s="3">
         <v>35.059179999999998</v>
       </c>
-      <c r="E28" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11427791522790892</v>
-      </c>
-      <c r="G28" s="9"/>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>8.5941257040238833E-2</v>
+      </c>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -4844,17 +4846,17 @@
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="8">
-        <v>30.016539999999999</v>
+      <c r="C29">
+        <v>32.07546</v>
       </c>
       <c r="D29" s="3">
         <v>33.783880000000003</v>
       </c>
-      <c r="E29" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11151294641112874</v>
-      </c>
-      <c r="G29" s="9"/>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>5.0569087979237544E-2</v>
+      </c>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -4863,17 +4865,17 @@
       <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="8">
-        <v>31.842079999999999</v>
+      <c r="C30">
+        <v>32.126919999999998</v>
       </c>
       <c r="D30" s="3">
         <v>35.387149999999998</v>
       </c>
-      <c r="E30" s="10">
-        <f t="shared" si="0"/>
-        <v>0.100179584962338</v>
-      </c>
-      <c r="G30" s="9"/>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>9.2130335446623995E-2</v>
+      </c>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -4882,17 +4884,17 @@
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="8">
-        <v>29.765370000000001</v>
+      <c r="C31">
+        <v>28.992819999999998</v>
       </c>
       <c r="D31" s="3">
         <v>34.92736</v>
       </c>
-      <c r="E31" s="10">
-        <f t="shared" si="0"/>
-        <v>0.14779216064426282</v>
-      </c>
-      <c r="G31" s="9"/>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16991092369993041</v>
+      </c>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -4901,19 +4903,19 @@
       <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>18.006599999999999</v>
       </c>
       <c r="D32" s="3">
         <v>20.345790000000001</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <f t="shared" si="0"/>
         <v>0.11497169684735771</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="9">
         <f>AVERAGE(E32:E41)</f>
-        <v>0.16110982051950726</v>
+        <v>0.14489643781916961</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4923,17 +4925,17 @@
       <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33">
         <v>18.976690000000001</v>
       </c>
       <c r="D33" s="3">
         <v>20.547519999999999</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <f t="shared" si="0"/>
         <v>7.6448641977231183E-2</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -4942,17 +4944,17 @@
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="8">
-        <v>16.994779999999999</v>
+      <c r="C34">
+        <v>17.713000000000001</v>
       </c>
       <c r="D34" s="3">
         <v>20.384720000000002</v>
       </c>
-      <c r="E34" s="10">
-        <f t="shared" si="0"/>
-        <v>0.16629808994187817</v>
-      </c>
-      <c r="G34" s="9"/>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13106483679932815</v>
+      </c>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -4961,17 +4963,17 @@
       <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="8">
-        <v>15.50381</v>
+      <c r="C35">
+        <v>16.196169999999999</v>
       </c>
       <c r="D35" s="3">
         <v>19.806760000000001</v>
       </c>
-      <c r="E35" s="10">
-        <f t="shared" si="0"/>
-        <v>0.21724653603113284</v>
-      </c>
-      <c r="G35" s="9"/>
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18229079364822928</v>
+      </c>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -4980,17 +4982,17 @@
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36">
         <v>16.43693</v>
       </c>
       <c r="D36" s="3">
         <v>20.956630000000001</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <f t="shared" si="0"/>
         <v>0.21566921780839762</v>
       </c>
-      <c r="G36" s="9"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -4999,17 +5001,17 @@
       <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37">
         <v>17.42062</v>
       </c>
       <c r="D37" s="3">
         <v>20.08785</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <f t="shared" si="0"/>
         <v>0.132778271442688</v>
       </c>
-      <c r="G37" s="9"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -5018,15 +5020,15 @@
       <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="8">
-        <v>16.488309999999998</v>
+      <c r="C38">
+        <v>16.724299999999999</v>
       </c>
       <c r="D38" s="3">
         <v>20.544309999999999</v>
       </c>
-      <c r="E38" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19742692745582602</v>
+      <c r="E38" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18594004860713259</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -5036,15 +5038,15 @@
       <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="8">
-        <v>16.928619999999999</v>
+      <c r="C39">
+        <v>17.983049999999999</v>
       </c>
       <c r="D39" s="3">
         <v>20.322690000000001</v>
       </c>
-      <c r="E39" s="10">
-        <f t="shared" si="0"/>
-        <v>0.16700889498388266</v>
+      <c r="E39" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11512452337756482</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -5054,15 +5056,15 @@
       <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="8">
-        <v>16.460850000000001</v>
+      <c r="C40">
+        <v>17.03736</v>
       </c>
       <c r="D40" s="3">
         <v>20.17633</v>
       </c>
-      <c r="E40" s="10">
-        <f t="shared" si="0"/>
-        <v>0.18415043766631492</v>
+      <c r="E40" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15557685664340345</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -5072,13 +5074,13 @@
       <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41">
         <v>17.065449999999998</v>
       </c>
       <c r="D41" s="3">
         <v>19.822790000000001</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="9">
         <f t="shared" si="0"/>
         <v>0.13909949104036326</v>
       </c>
@@ -5090,19 +5092,19 @@
       <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="8">
-        <v>10.633889999999999</v>
+      <c r="C42">
+        <v>11.26074</v>
       </c>
       <c r="D42" s="3">
         <v>13.71912</v>
       </c>
-      <c r="E42" s="10">
-        <f t="shared" si="0"/>
-        <v>0.22488541539107471</v>
-      </c>
-      <c r="G42" s="10">
+      <c r="E42" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17919370921750083</v>
+      </c>
+      <c r="G42" s="9">
         <f>AVERAGE(E42:E51)</f>
-        <v>0.20281478456173779</v>
+        <v>0.19389287458980292</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -5112,13 +5114,13 @@
       <c r="B43" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43">
         <v>10.8462</v>
       </c>
       <c r="D43" s="3">
         <v>13.935879999999999</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <f t="shared" si="0"/>
         <v>0.22170684592576856</v>
       </c>
@@ -5130,13 +5132,13 @@
       <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44">
         <v>11.3367</v>
       </c>
       <c r="D44" s="3">
         <v>13.770989999999999</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="9">
         <f t="shared" si="0"/>
         <v>0.17676942616326052</v>
       </c>
@@ -5148,15 +5150,15 @@
       <c r="B45" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="8">
-        <v>11.197649999999999</v>
+      <c r="C45">
+        <v>11.286049999999999</v>
       </c>
       <c r="D45" s="3">
         <v>13.95346</v>
       </c>
-      <c r="E45" s="10">
-        <f t="shared" si="0"/>
-        <v>0.19750011825024047</v>
+      <c r="E45" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19116477203503648</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -5166,13 +5168,13 @@
       <c r="B46" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46">
         <v>11.181430000000001</v>
       </c>
       <c r="D46" s="3">
         <v>13.769080000000001</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="9">
         <f t="shared" si="0"/>
         <v>0.18793194607047092</v>
       </c>
@@ -5184,15 +5186,15 @@
       <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="8">
-        <v>10.77303</v>
+      <c r="C47">
+        <v>11.08013</v>
       </c>
       <c r="D47" s="3">
         <v>13.89026</v>
       </c>
-      <c r="E47" s="10">
-        <f t="shared" si="0"/>
-        <v>0.2244184054150174</v>
+      <c r="E47" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20230938801721488</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -5202,13 +5204,13 @@
       <c r="B48" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48">
         <v>11.363340000000001</v>
       </c>
       <c r="D48" s="3">
         <v>13.78978</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="9">
         <f t="shared" si="0"/>
         <v>0.17595929739270674</v>
       </c>
@@ -5220,13 +5222,13 @@
       <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49">
         <v>11.06908</v>
       </c>
       <c r="D49" s="3">
         <v>14.100860000000001</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="9">
         <f t="shared" si="0"/>
         <v>0.21500674426949853</v>
       </c>
@@ -5238,15 +5240,15 @@
       <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="8">
-        <v>10.830970000000001</v>
+      <c r="C50">
+        <v>11.03786</v>
       </c>
       <c r="D50" s="3">
         <v>13.71674</v>
       </c>
-      <c r="E50" s="10">
-        <f t="shared" si="0"/>
-        <v>0.21038307936142256</v>
+      <c r="E50" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19530004942865431</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -5256,13 +5258,13 @@
       <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51">
         <v>11.262370000000001</v>
       </c>
       <c r="D51" s="3">
         <v>13.965999999999999</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="9">
         <f t="shared" si="0"/>
         <v>0.19358656737791771</v>
       </c>
@@ -5274,19 +5276,19 @@
       <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52">
         <v>7.6476899999999999</v>
       </c>
       <c r="D52">
         <v>9.5818700000000003</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="9">
         <f t="shared" si="0"/>
         <v>0.20185830114580977</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="9">
         <f>AVERAGE(E52:E61)</f>
-        <v>0.2034503248416189</v>
+        <v>0.20074144922824333</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -5296,13 +5298,13 @@
       <c r="B53" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53">
         <v>7.6638900000000003</v>
       </c>
       <c r="D53">
         <v>9.5038400000000003</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="9">
         <f t="shared" si="0"/>
         <v>0.19360069193084059</v>
       </c>
@@ -5314,13 +5316,13 @@
       <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54">
         <v>7.4472500000000004</v>
       </c>
       <c r="D54" s="4">
         <v>9.4111499999999992</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="9">
         <f t="shared" si="0"/>
         <v>0.20867800428215458</v>
       </c>
@@ -5332,15 +5334,15 @@
       <c r="B55" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="8">
-        <v>7.5485300000000004</v>
+      <c r="C55">
+        <v>7.6505900000000002</v>
       </c>
       <c r="D55" s="4">
         <v>9.5068999999999999</v>
       </c>
-      <c r="E55" s="10">
-        <f t="shared" si="0"/>
-        <v>0.20599459340058268</v>
+      <c r="E55" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19525923276777915</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5350,13 +5352,13 @@
       <c r="B56" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56">
         <v>7.6590800000000003</v>
       </c>
       <c r="D56" s="4">
         <v>9.6020699999999994</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="9">
         <f t="shared" si="0"/>
         <v>0.20235115969785675</v>
       </c>
@@ -5368,15 +5370,15 @@
       <c r="B57" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="8">
-        <v>7.52963</v>
+      <c r="C57">
+        <v>7.6853400000000001</v>
       </c>
       <c r="D57" s="4">
         <v>9.5215700000000005</v>
       </c>
-      <c r="E57" s="10">
-        <f t="shared" si="0"/>
-        <v>0.20920289406053838</v>
+      <c r="E57" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19284949855958633</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -5386,13 +5388,13 @@
       <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58">
         <v>7.3559200000000002</v>
       </c>
       <c r="D58" s="5">
         <v>9.5524400000000007</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="9">
         <f t="shared" si="0"/>
         <v>0.22994334431831032</v>
       </c>
@@ -5404,13 +5406,13 @@
       <c r="B59" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59">
         <v>7.6312600000000002</v>
       </c>
       <c r="D59" s="4">
         <v>9.5225200000000001</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="9">
         <f t="shared" si="0"/>
         <v>0.19860919168455407</v>
       </c>
@@ -5422,13 +5424,13 @@
       <c r="B60" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60">
         <v>7.7134</v>
       </c>
       <c r="D60" s="6">
         <v>9.5343199999999992</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="9">
         <f t="shared" si="0"/>
         <v>0.1909858280401748</v>
       </c>
@@ -5440,13 +5442,13 @@
       <c r="B61" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61">
         <v>7.6615399999999996</v>
       </c>
       <c r="D61" s="5">
         <v>9.4971399999999999</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="9">
         <f t="shared" si="0"/>
         <v>0.19327923985536702</v>
       </c>
@@ -5461,8 +5463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2494C6-E565-4DDC-80DA-B313E62A0741}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5501,17 +5503,17 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>80.284970000000001</v>
       </c>
       <c r="D2" s="3">
         <v>80.284970000000001</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <f>ABS(D2-C2)/D2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <f>AVERAGE(E2:E11)</f>
         <v>0</v>
       </c>
@@ -5523,13 +5525,13 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>78.420630000000003</v>
       </c>
       <c r="D3" s="3">
         <v>78.420630000000003</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <f t="shared" ref="E3:E61" si="0">ABS(D3-C3)/D3</f>
         <v>0</v>
       </c>
@@ -5541,13 +5543,13 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>81.20881</v>
       </c>
       <c r="D4" s="3">
         <v>81.20881</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5559,13 +5561,13 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>81.519300000000001</v>
       </c>
       <c r="D5" s="3">
         <v>81.519300000000001</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5577,13 +5579,13 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>77.958529999999996</v>
       </c>
       <c r="D6" s="3">
         <v>77.958529999999996</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5595,13 +5597,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>74.068569999999994</v>
       </c>
       <c r="D7" s="3">
         <v>74.068569999999994</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5613,13 +5615,13 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>77.008229999999998</v>
       </c>
       <c r="D8" s="3">
         <v>77.008229999999998</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5631,13 +5633,13 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>91.607209999999995</v>
       </c>
       <c r="D9" s="3">
         <v>91.607209999999995</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5649,13 +5651,13 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>85.552880000000002</v>
       </c>
       <c r="D10" s="3">
         <v>85.552880000000002</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5667,13 +5669,13 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>88.936989999999994</v>
       </c>
       <c r="D11" s="3">
         <v>88.936989999999994</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5685,19 +5687,19 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8">
-        <v>53.443759999999997</v>
+      <c r="C12">
+        <v>54.214179999999999</v>
       </c>
       <c r="D12" s="3">
         <v>54.214179999999999</v>
       </c>
-      <c r="E12" s="10">
-        <f t="shared" si="0"/>
-        <v>1.4210673296174569E-2</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
         <f>AVERAGE(E12:E21)</f>
-        <v>2.099084151606586E-2</v>
+        <v>3.6889243942036772E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5707,13 +5709,13 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>54.207369999999997</v>
       </c>
       <c r="D13" s="3">
         <v>54.207369999999997</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5725,15 +5727,15 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8">
-        <v>52.722189999999998</v>
+      <c r="C14">
+        <v>55.747340000000001</v>
       </c>
       <c r="D14" s="3">
         <v>55.747340000000001</v>
       </c>
-      <c r="E14" s="10">
-        <f t="shared" si="0"/>
-        <v>5.4265369432873453E-2</v>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5743,13 +5745,13 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>53.857100000000003</v>
       </c>
       <c r="D15" s="3">
         <v>53.857100000000003</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5761,13 +5763,13 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>56.508110000000002</v>
       </c>
       <c r="D16" s="3">
         <v>56.508110000000002</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5779,15 +5781,15 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8">
-        <v>48.80959</v>
+      <c r="C17">
+        <v>48.959090000000003</v>
       </c>
       <c r="D17" s="3">
         <v>50.834330000000001</v>
       </c>
-      <c r="E17" s="10">
-        <f t="shared" si="0"/>
-        <v>3.9830169887160927E-2</v>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>3.688924394203677E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5797,15 +5799,15 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8">
-        <v>54.290689999999998</v>
+      <c r="C18">
+        <v>57.848889999999997</v>
       </c>
       <c r="D18" s="3">
         <v>57.848889999999997</v>
       </c>
-      <c r="E18" s="10">
-        <f t="shared" si="0"/>
-        <v>6.1508526784178563E-2</v>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5815,15 +5817,15 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="8">
-        <v>48.59592</v>
+      <c r="C19">
+        <v>50.625689999999999</v>
       </c>
       <c r="D19" s="3">
         <v>50.625689999999999</v>
       </c>
-      <c r="E19" s="10">
-        <f t="shared" si="0"/>
-        <v>4.0093675760271105E-2</v>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5833,13 +5835,13 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>52.219450000000002</v>
       </c>
       <c r="D20" s="3">
         <v>52.219450000000002</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5851,13 +5853,13 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>57.479959999999998</v>
       </c>
       <c r="D21" s="3">
         <v>57.479959999999998</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5869,19 +5871,19 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8">
-        <v>33.393799999999999</v>
+      <c r="C22">
+        <v>34.110469999999999</v>
       </c>
       <c r="D22" s="3">
         <v>34.110469999999999</v>
       </c>
-      <c r="E22" s="10">
-        <f t="shared" si="0"/>
-        <v>2.1010264590314957E-2</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
         <f>AVERAGE(E22:E30)</f>
-        <v>5.2351939119009643E-2</v>
+        <v>2.9119228801684255E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5891,15 +5893,15 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="8">
-        <v>31.394629999999999</v>
+      <c r="C23">
+        <v>34.819920000000003</v>
       </c>
       <c r="D23" s="3">
         <v>34.819920000000003</v>
       </c>
-      <c r="E23" s="10">
-        <f t="shared" si="0"/>
-        <v>9.8371564322950869E-2</v>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5909,15 +5911,15 @@
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="8">
-        <v>34.025840000000002</v>
+      <c r="C24">
+        <v>36.06071</v>
       </c>
       <c r="D24" s="3">
         <v>36.06071</v>
       </c>
-      <c r="E24" s="10">
-        <f t="shared" si="0"/>
-        <v>5.64290054189171E-2</v>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5927,15 +5929,15 @@
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="8">
-        <v>32.73366</v>
+      <c r="C25">
+        <v>34.414319999999996</v>
       </c>
       <c r="D25" s="3">
         <v>34.59243</v>
       </c>
-      <c r="E25" s="10">
-        <f t="shared" si="0"/>
-        <v>5.3733432430158844E-2</v>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>5.1488143504230194E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5945,15 +5947,15 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="8">
-        <v>35.200670000000002</v>
+      <c r="C26">
+        <v>35.609830000000002</v>
       </c>
       <c r="D26" s="3">
         <v>35.609830000000002</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" si="0"/>
-        <v>1.1490085743178216E-2</v>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5963,15 +5965,15 @@
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="8">
-        <v>31.19735</v>
+      <c r="C27">
+        <v>33.63758</v>
       </c>
       <c r="D27" s="3">
         <v>33.63758</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="0"/>
-        <v>7.2544755003183928E-2</v>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5981,15 +5983,15 @@
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="8">
-        <v>34.657080000000001</v>
+      <c r="C28">
+        <v>35.059179999999998</v>
       </c>
       <c r="D28" s="3">
         <v>35.059179999999998</v>
       </c>
-      <c r="E28" s="10">
-        <f t="shared" si="0"/>
-        <v>1.1469178685867646E-2</v>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -5999,15 +6001,15 @@
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="8">
-        <v>30.877210000000002</v>
+      <c r="C29">
+        <v>33.783880000000003</v>
       </c>
       <c r="D29" s="3">
         <v>33.783880000000003</v>
       </c>
-      <c r="E29" s="10">
-        <f t="shared" si="0"/>
-        <v>8.6037186966091569E-2</v>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6017,15 +6019,15 @@
       <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="8">
-        <v>33.261020000000002</v>
+      <c r="C30">
+        <v>34.641950000000001</v>
       </c>
       <c r="D30" s="3">
         <v>35.387149999999998</v>
       </c>
-      <c r="E30" s="10">
-        <f t="shared" si="0"/>
-        <v>6.0081978910423599E-2</v>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>2.1058491571092811E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6035,15 +6037,15 @@
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="8">
-        <v>31.45476</v>
+      <c r="C31">
+        <v>33.700240000000001</v>
       </c>
       <c r="D31" s="3">
         <v>34.92736</v>
       </c>
-      <c r="E31" s="10">
-        <f t="shared" si="0"/>
-        <v>9.9423489207314836E-2</v>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5133488474365066E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6053,19 +6055,19 @@
       <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="8">
-        <v>18.102</v>
+      <c r="C32">
+        <v>19.539809999999999</v>
       </c>
       <c r="D32" s="3">
         <v>20.345790000000001</v>
       </c>
-      <c r="E32" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11028276611525041</v>
-      </c>
-      <c r="G32" s="10">
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9614092153708542E-2</v>
+      </c>
+      <c r="G32" s="9">
         <f>AVERAGE(E32:E41)</f>
-        <v>9.5840313779894853E-2</v>
+        <v>5.2190535014330776E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6075,15 +6077,15 @@
       <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="8">
-        <v>18.976690000000001</v>
+      <c r="C33">
+        <v>19.42015</v>
       </c>
       <c r="D33" s="3">
         <v>20.547519999999999</v>
       </c>
-      <c r="E33" s="10">
-        <f t="shared" si="0"/>
-        <v>7.6448641977231183E-2</v>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>5.4866475370263623E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -6093,15 +6095,15 @@
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="8">
-        <v>18.720300000000002</v>
+      <c r="C34">
+        <v>19.250720000000001</v>
       </c>
       <c r="D34" s="3">
         <v>20.384720000000002</v>
       </c>
-      <c r="E34" s="10">
-        <f t="shared" si="0"/>
-        <v>8.1650373416951499E-2</v>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5629903182383679E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6111,15 +6113,15 @@
       <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="8">
-        <v>17.590669999999999</v>
+      <c r="C35">
+        <v>18.552009999999999</v>
       </c>
       <c r="D35" s="3">
         <v>19.806760000000001</v>
       </c>
-      <c r="E35" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11188553806882101</v>
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>6.3349583677491994E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6129,15 +6131,15 @@
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="8">
-        <v>18.800370000000001</v>
+      <c r="C36">
+        <v>19.916440000000001</v>
       </c>
       <c r="D36" s="3">
         <v>20.956630000000001</v>
       </c>
-      <c r="E36" s="10">
-        <f t="shared" si="0"/>
-        <v>0.10289154315364635</v>
+      <c r="E36" s="9">
+        <f t="shared" si="0"/>
+        <v>4.9635365991573983E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -6147,15 +6149,15 @@
       <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="8">
-        <v>18.615089999999999</v>
+      <c r="C37">
+        <v>19.156590000000001</v>
       </c>
       <c r="D37" s="3">
         <v>20.08785</v>
       </c>
-      <c r="E37" s="10">
-        <f t="shared" si="0"/>
-        <v>7.3315959647249504E-2</v>
+      <c r="E37" s="9">
+        <f t="shared" si="0"/>
+        <v>4.6359366482724547E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6165,15 +6167,15 @@
       <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="8">
-        <v>18.23423</v>
+      <c r="C38">
+        <v>19.249469999999999</v>
       </c>
       <c r="D38" s="3">
         <v>20.544309999999999</v>
       </c>
-      <c r="E38" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11244378613835165</v>
+      <c r="E38" s="9">
+        <f t="shared" si="0"/>
+        <v>6.3026696929709525E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6183,15 +6185,15 @@
       <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="8">
-        <v>18.510179999999998</v>
+      <c r="C39">
+        <v>19.603449999999999</v>
       </c>
       <c r="D39" s="3">
         <v>20.322690000000001</v>
       </c>
-      <c r="E39" s="10">
-        <f t="shared" si="0"/>
-        <v>8.9186520091582511E-2</v>
+      <c r="E39" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5390984165974228E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6201,15 +6203,15 @@
       <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="8">
-        <v>18.17407</v>
+      <c r="C40">
+        <v>18.867149999999999</v>
       </c>
       <c r="D40" s="3">
         <v>20.17633</v>
       </c>
-      <c r="E40" s="10">
-        <f t="shared" si="0"/>
-        <v>9.9238067577205546E-2</v>
+      <c r="E40" s="9">
+        <f t="shared" si="0"/>
+        <v>6.4886924430756304E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6219,15 +6221,15 @@
       <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="8">
-        <v>17.819500000000001</v>
+      <c r="C41">
+        <v>18.848579999999998</v>
       </c>
       <c r="D41" s="3">
         <v>19.822790000000001</v>
       </c>
-      <c r="E41" s="10">
-        <f t="shared" si="0"/>
-        <v>0.10105994161265895</v>
+      <c r="E41" s="9">
+        <f t="shared" si="0"/>
+        <v>4.9145957758721291E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6237,19 +6239,19 @@
       <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="8">
-        <v>11.798220000000001</v>
+      <c r="C42">
+        <v>12.79242</v>
       </c>
       <c r="D42" s="3">
         <v>13.71912</v>
       </c>
-      <c r="E42" s="10">
-        <f t="shared" si="0"/>
-        <v>0.14001626926508404</v>
-      </c>
-      <c r="G42" s="10">
+      <c r="E42" s="9">
+        <f t="shared" si="0"/>
+        <v>6.7548064307331693E-2</v>
+      </c>
+      <c r="G42" s="9">
         <f>AVERAGE(E42:E51)</f>
-        <v>0.12357951182632912</v>
+        <v>8.1057511324882939E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -6259,15 +6261,15 @@
       <c r="B43" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="8">
-        <v>12.10852</v>
+      <c r="C43">
+        <v>12.65967</v>
       </c>
       <c r="D43" s="3">
         <v>13.935879999999999</v>
       </c>
-      <c r="E43" s="10">
-        <f t="shared" si="0"/>
-        <v>0.13112627261428764</v>
+      <c r="E43" s="9">
+        <f t="shared" si="0"/>
+        <v>9.1577281090250415E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -6277,15 +6279,15 @@
       <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="8">
-        <v>12.4534</v>
+      <c r="C44">
+        <v>12.752190000000001</v>
       </c>
       <c r="D44" s="3">
         <v>13.770989999999999</v>
       </c>
-      <c r="E44" s="10">
-        <f t="shared" si="0"/>
-        <v>9.5678669434804561E-2</v>
+      <c r="E44" s="9">
+        <f t="shared" si="0"/>
+        <v>7.398160916535404E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -6295,15 +6297,15 @@
       <c r="B45" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="8">
-        <v>12.14869</v>
+      <c r="C45">
+        <v>12.763809999999999</v>
       </c>
       <c r="D45" s="3">
         <v>13.95346</v>
       </c>
-      <c r="E45" s="10">
-        <f t="shared" si="0"/>
-        <v>0.12934211299562973</v>
+      <c r="E45" s="9">
+        <f t="shared" si="0"/>
+        <v>8.5258423358794189E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -6313,15 +6315,15 @@
       <c r="B46" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="8">
-        <v>11.929259999999999</v>
+      <c r="C46">
+        <v>12.46725</v>
       </c>
       <c r="D46" s="3">
         <v>13.769080000000001</v>
       </c>
-      <c r="E46" s="10">
-        <f t="shared" si="0"/>
-        <v>0.13361967538862446</v>
+      <c r="E46" s="9">
+        <f t="shared" si="0"/>
+        <v>9.4547348116214056E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -6331,15 +6333,15 @@
       <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="8">
-        <v>12.238810000000001</v>
+      <c r="C47">
+        <v>12.59807</v>
       </c>
       <c r="D47" s="3">
         <v>13.89026</v>
       </c>
-      <c r="E47" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11889266291631681</v>
+      <c r="E47" s="9">
+        <f t="shared" si="0"/>
+        <v>9.302849622685247E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -6349,15 +6351,15 @@
       <c r="B48" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="8">
-        <v>11.9177</v>
+      <c r="C48">
+        <v>12.571680000000001</v>
       </c>
       <c r="D48" s="3">
         <v>13.78978</v>
       </c>
-      <c r="E48" s="10">
-        <f t="shared" si="0"/>
-        <v>0.13575851101322867</v>
+      <c r="E48" s="9">
+        <f t="shared" si="0"/>
+        <v>8.8333533965008842E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -6367,15 +6369,15 @@
       <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="8">
-        <v>12.27821</v>
+      <c r="C49">
+        <v>12.95767</v>
       </c>
       <c r="D49" s="3">
         <v>14.100860000000001</v>
       </c>
-      <c r="E49" s="10">
-        <f t="shared" si="0"/>
-        <v>0.12925807362104164</v>
+      <c r="E49" s="9">
+        <f t="shared" si="0"/>
+        <v>8.1072360125552662E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -6385,15 +6387,15 @@
       <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="8">
-        <v>12.238709999999999</v>
+      <c r="C50">
+        <v>12.88941</v>
       </c>
       <c r="D50" s="3">
         <v>13.71674</v>
       </c>
-      <c r="E50" s="10">
-        <f t="shared" si="0"/>
-        <v>0.10775373740407709</v>
+      <c r="E50" s="9">
+        <f t="shared" si="0"/>
+        <v>6.0315351898483159E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -6403,15 +6405,15 @@
       <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="8">
-        <v>12.369</v>
+      <c r="C51">
+        <v>12.91977</v>
       </c>
       <c r="D51" s="3">
         <v>13.965999999999999</v>
       </c>
-      <c r="E51" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11434913361019616</v>
+      <c r="E51" s="9">
+        <f t="shared" si="0"/>
+        <v>7.4912644994987801E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -6421,19 +6423,19 @@
       <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="8">
-        <v>8.1612100000000005</v>
+      <c r="C52">
+        <v>8.5460100000000008</v>
       </c>
       <c r="D52">
         <v>9.5818700000000003</v>
       </c>
-      <c r="E52" s="10">
-        <f t="shared" si="0"/>
-        <v>0.14826542209401711</v>
-      </c>
-      <c r="G52" s="10">
+      <c r="E52" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10810624648424572</v>
+      </c>
+      <c r="G52" s="9">
         <f>AVERAGE(E52:E61)</f>
-        <v>0.14250542637769609</v>
+        <v>0.11586530661351375</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -6443,15 +6445,15 @@
       <c r="B53" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="8">
-        <v>8.1224799999999995</v>
+      <c r="C53">
+        <v>8.2706499999999998</v>
       </c>
       <c r="D53">
         <v>9.5038400000000003</v>
       </c>
-      <c r="E53" s="10">
-        <f t="shared" si="0"/>
-        <v>0.14534756477381783</v>
+      <c r="E53" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12975702452903251</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -6461,15 +6463,15 @@
       <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="8">
-        <v>8.1265999999999998</v>
+      <c r="C54">
+        <v>8.3917900000000003</v>
       </c>
       <c r="D54" s="4">
         <v>9.4111499999999992</v>
       </c>
-      <c r="E54" s="10">
-        <f t="shared" si="0"/>
-        <v>0.13649235215675018</v>
+      <c r="E54" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10831407426297519</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -6479,15 +6481,15 @@
       <c r="B55" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="8">
-        <v>8.12852</v>
+      <c r="C55">
+        <v>8.4175400000000007</v>
       </c>
       <c r="D55" s="4">
         <v>9.5068999999999999</v>
       </c>
-      <c r="E55" s="10">
-        <f t="shared" si="0"/>
-        <v>0.14498732499552955</v>
+      <c r="E55" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11458624788311639</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -6497,15 +6499,15 @@
       <c r="B56" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="8">
-        <v>8.2055000000000007</v>
+      <c r="C56">
+        <v>8.4684899999999992</v>
       </c>
       <c r="D56" s="4">
         <v>9.6020699999999994</v>
       </c>
-      <c r="E56" s="10">
-        <f t="shared" si="0"/>
-        <v>0.14544468015750758</v>
+      <c r="E56" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11805579421937148</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -6515,15 +6517,15 @@
       <c r="B57" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="8">
-        <v>8.2395899999999997</v>
+      <c r="C57">
+        <v>8.4213400000000007</v>
       </c>
       <c r="D57" s="4">
         <v>9.5215700000000005</v>
       </c>
-      <c r="E57" s="10">
-        <f t="shared" si="0"/>
-        <v>0.13463956049264991</v>
+      <c r="E57" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11555132189334319</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -6533,15 +6535,15 @@
       <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="8">
-        <v>8.1640800000000002</v>
+      <c r="C58">
+        <v>8.4389500000000002</v>
       </c>
       <c r="D58" s="5">
         <v>9.5524400000000007</v>
       </c>
-      <c r="E58" s="10">
-        <f t="shared" si="0"/>
-        <v>0.14534087625779385</v>
+      <c r="E58" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11656602920300996</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -6551,15 +6553,15 @@
       <c r="B59" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="8">
-        <v>8.3026400000000002</v>
+      <c r="C59">
+        <v>8.4372000000000007</v>
       </c>
       <c r="D59" s="4">
         <v>9.5225200000000001</v>
       </c>
-      <c r="E59" s="10">
-        <f t="shared" si="0"/>
-        <v>0.12810474538252478</v>
+      <c r="E59" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1139740320839441</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -6569,15 +6571,15 @@
       <c r="B60" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="8">
-        <v>8.1017899999999994</v>
+      <c r="C60">
+        <v>8.4094099999999994</v>
       </c>
       <c r="D60" s="6">
         <v>9.5343199999999992</v>
       </c>
-      <c r="E60" s="10">
-        <f t="shared" si="0"/>
-        <v>0.15024983428288541</v>
+      <c r="E60" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11798534137725605</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -6587,15 +6589,15 @@
       <c r="B61" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="8">
-        <v>8.1088299999999993</v>
+      <c r="C61">
+        <v>8.3977799999999991</v>
       </c>
       <c r="D61" s="5">
         <v>9.4971399999999999</v>
       </c>
-      <c r="E61" s="10">
-        <f t="shared" si="0"/>
-        <v>0.14618190318348478</v>
+      <c r="E61" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1157569541988431</v>
       </c>
     </row>
   </sheetData>
@@ -6607,8 +6609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F127C9B-316E-4969-8C68-C3FDC9010DE7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Comparacion_resultados.xlsx
+++ b/src/Comparacion_resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mer\Desktop\proyecto\mdp\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0973CB93-9D26-4E62-BBE7-BD5FF333CB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CEBDD4-2C0A-49FA-85EF-A2BBA3EF4C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="3" activeTab="4" xr2:uid="{C3C22821-3E45-4ED2-BB68-30A55BA9BDAB}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{C3C22821-3E45-4ED2-BB68-30A55BA9BDAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados Greedy-Exactos" sheetId="4" r:id="rId1"/>
@@ -1930,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E29C35B-3859-4FC1-AC82-E4926B09B98F}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3109,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBAA0E8-D306-429E-BC18-CFF05B77FFEF}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6609,7 +6609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F127C9B-316E-4969-8C68-C3FDC9010DE7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>

--- a/src/Comparacion_resultados.xlsx
+++ b/src/Comparacion_resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mer\Desktop\proyecto\mdp\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CEBDD4-2C0A-49FA-85EF-A2BBA3EF4C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5BC497-DBE6-44D5-8C21-97B7F5A2D02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{C3C22821-3E45-4ED2-BB68-30A55BA9BDAB}"/>
+    <workbookView xWindow="1530" yWindow="2430" windowWidth="13065" windowHeight="11295" firstSheet="4" activeTab="4" xr2:uid="{C3C22821-3E45-4ED2-BB68-30A55BA9BDAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados Greedy-Exactos" sheetId="4" r:id="rId1"/>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -342,6 +342,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,19 +499,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8092104292512536E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1140863036486802E-2</c:v>
+                  <c:v>5.148814350423019E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14489643781916961</c:v>
+                  <c:v>5.7616749073721239E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19389287458980292</c:v>
+                  <c:v>0.11302078626126413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20074144922824333</c:v>
+                  <c:v>0.13787850450350186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,7 +566,7 @@
                   <c:v>3.6889243942036772E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9119228801684255E-3</c:v>
+                  <c:v>6.1340794395880896E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.2190535014330776E-2</c:v>
@@ -1930,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E29C35B-3859-4FC1-AC82-E4926B09B98F}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52:E61"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3109,12 +3110,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBAA0E8-D306-429E-BC18-CFF05B77FFEF}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52:E61"/>
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="27.140625" customWidth="1"/>
   </cols>
@@ -4284,8 +4286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D352FE3-BDA6-45A5-B0DD-CB3ABF2FCFE0}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4323,7 +4325,7 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>80.284970000000001</v>
       </c>
       <c r="D2" s="3">
@@ -4345,7 +4347,7 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>78.420630000000003</v>
       </c>
       <c r="D3" s="3">
@@ -4364,7 +4366,7 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <v>81.20881</v>
       </c>
       <c r="D4" s="3">
@@ -4383,7 +4385,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>81.519300000000001</v>
       </c>
       <c r="D5" s="3">
@@ -4402,7 +4404,7 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <v>77.958529999999996</v>
       </c>
       <c r="D6" s="3">
@@ -4421,7 +4423,7 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>74.068569999999994</v>
       </c>
       <c r="D7" s="3">
@@ -4440,7 +4442,7 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <v>77.008229999999998</v>
       </c>
       <c r="D8" s="3">
@@ -4459,7 +4461,7 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <v>91.607209999999995</v>
       </c>
       <c r="D9" s="3">
@@ -4478,7 +4480,7 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <v>85.552880000000002</v>
       </c>
       <c r="D10" s="3">
@@ -4497,7 +4499,7 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <v>88.936989999999994</v>
       </c>
       <c r="D11" s="3">
@@ -4516,7 +4518,7 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="10">
         <v>54.214179999999999</v>
       </c>
       <c r="D12" s="3">
@@ -4528,7 +4530,7 @@
       </c>
       <c r="G12" s="9">
         <f>AVERAGE(E12:E21)</f>
-        <v>1.8092104292512536E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4538,7 +4540,7 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="10">
         <v>54.207369999999997</v>
       </c>
       <c r="D13" s="3">
@@ -4558,7 +4560,7 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="10">
         <v>55.747340000000001</v>
       </c>
       <c r="D14" s="3">
@@ -4577,7 +4579,7 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="10">
         <v>53.857100000000003</v>
       </c>
       <c r="D15" s="3">
@@ -4596,7 +4598,7 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="10">
         <v>56.508110000000002</v>
       </c>
       <c r="D16" s="3">
@@ -4615,15 +4617,15 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>49.914630000000002</v>
+      <c r="C17" s="10">
+        <v>50.834330000000001</v>
       </c>
       <c r="D17" s="3">
         <v>50.834330000000001</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="0"/>
-        <v>1.8092104292512536E-2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8"/>
     </row>
@@ -4634,7 +4636,7 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="10">
         <v>57.848889999999997</v>
       </c>
       <c r="D18" s="3">
@@ -4653,7 +4655,7 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="10">
         <v>50.625689999999999</v>
       </c>
       <c r="D19" s="3">
@@ -4672,7 +4674,7 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="10">
         <v>52.219450000000002</v>
       </c>
       <c r="D20" s="3">
@@ -4691,7 +4693,7 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="10">
         <v>57.479959999999998</v>
       </c>
       <c r="D21" s="3">
@@ -4710,19 +4712,19 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22">
-        <v>32.065010000000001</v>
+      <c r="C22" s="10">
+        <v>34.110469999999999</v>
       </c>
       <c r="D22" s="3">
         <v>34.110469999999999</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="0"/>
-        <v>5.9965752450787065E-2</v>
+        <v>0</v>
       </c>
       <c r="G22" s="9">
         <f>AVERAGE(E22:E31)</f>
-        <v>9.1140863036486802E-2</v>
+        <v>5.148814350423019E-4</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4732,15 +4734,15 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23">
-        <v>30.278030000000001</v>
+      <c r="C23" s="10">
+        <v>34.819920000000003</v>
       </c>
       <c r="D23" s="3">
         <v>34.819920000000003</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="0"/>
-        <v>0.13043941513938004</v>
+        <v>0</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -4751,15 +4753,15 @@
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24">
-        <v>32.939250000000001</v>
+      <c r="C24" s="10">
+        <v>36.06071</v>
       </c>
       <c r="D24" s="3">
         <v>36.06071</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="0"/>
-        <v>8.6561246298256442E-2</v>
+        <v>0</v>
       </c>
       <c r="G24" s="8"/>
     </row>
@@ -4770,15 +4772,15 @@
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25">
-        <v>30.805479999999999</v>
+      <c r="C25" s="10">
+        <v>34.414319999999996</v>
       </c>
       <c r="D25" s="3">
         <v>34.59243</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="0"/>
-        <v>0.10947337322067287</v>
+        <v>5.1488143504230194E-3</v>
       </c>
       <c r="G25" s="8"/>
     </row>
@@ -4789,15 +4791,15 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26">
-        <v>33.69144</v>
+      <c r="C26" s="10">
+        <v>35.609830000000002</v>
       </c>
       <c r="D26" s="3">
         <v>35.609830000000002</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="0"/>
-        <v>5.3872484086557058E-2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="8"/>
     </row>
@@ -4808,15 +4810,15 @@
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27">
-        <v>31.19735</v>
+      <c r="C27" s="10">
+        <v>33.63758</v>
       </c>
       <c r="D27" s="3">
         <v>33.63758</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="0"/>
-        <v>7.2544755003183928E-2</v>
+        <v>0</v>
       </c>
       <c r="G27" s="8"/>
     </row>
@@ -4827,15 +4829,15 @@
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28">
-        <v>32.046149999999997</v>
+      <c r="C28" s="10">
+        <v>35.059179999999998</v>
       </c>
       <c r="D28" s="3">
         <v>35.059179999999998</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="0"/>
-        <v>8.5941257040238833E-2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="8"/>
     </row>
@@ -4846,15 +4848,15 @@
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29">
-        <v>32.07546</v>
+      <c r="C29" s="10">
+        <v>33.783880000000003</v>
       </c>
       <c r="D29" s="3">
         <v>33.783880000000003</v>
       </c>
       <c r="E29" s="9">
         <f t="shared" si="0"/>
-        <v>5.0569087979237544E-2</v>
+        <v>0</v>
       </c>
       <c r="G29" s="8"/>
     </row>
@@ -4865,15 +4867,15 @@
       <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30">
-        <v>32.126919999999998</v>
+      <c r="C30" s="10">
+        <v>35.387149999999998</v>
       </c>
       <c r="D30" s="3">
         <v>35.387149999999998</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" si="0"/>
-        <v>9.2130335446623995E-2</v>
+        <v>0</v>
       </c>
       <c r="G30" s="8"/>
     </row>
@@ -4884,15 +4886,15 @@
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31">
-        <v>28.992819999999998</v>
+      <c r="C31" s="10">
+        <v>34.92736</v>
       </c>
       <c r="D31" s="3">
         <v>34.92736</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" si="0"/>
-        <v>0.16991092369993041</v>
+        <v>0</v>
       </c>
       <c r="G31" s="8"/>
     </row>
@@ -4903,19 +4905,19 @@
       <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="C32">
-        <v>18.006599999999999</v>
+      <c r="C32" s="10">
+        <v>19.49841</v>
       </c>
       <c r="D32" s="3">
         <v>20.345790000000001</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" si="0"/>
-        <v>0.11497169684735771</v>
+        <v>4.1648911150660703E-2</v>
       </c>
       <c r="G32" s="9">
         <f>AVERAGE(E32:E41)</f>
-        <v>0.14489643781916961</v>
+        <v>5.7616749073721239E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4925,15 +4927,15 @@
       <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33">
-        <v>18.976690000000001</v>
+      <c r="C33" s="10">
+        <v>19.267230000000001</v>
       </c>
       <c r="D33" s="3">
         <v>20.547519999999999</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="0"/>
-        <v>7.6448641977231183E-2</v>
+        <v>6.2308736042111033E-2</v>
       </c>
       <c r="G33" s="8"/>
     </row>
@@ -4944,15 +4946,15 @@
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34">
-        <v>17.713000000000001</v>
+      <c r="C34" s="10">
+        <v>19.105229999999999</v>
       </c>
       <c r="D34" s="3">
         <v>20.384720000000002</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" si="0"/>
-        <v>0.13106483679932815</v>
+        <v>6.2767111836709188E-2</v>
       </c>
       <c r="G34" s="8"/>
     </row>
@@ -4963,15 +4965,15 @@
       <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C35">
-        <v>16.196169999999999</v>
+      <c r="C35" s="10">
+        <v>18.417870000000001</v>
       </c>
       <c r="D35" s="3">
         <v>19.806760000000001</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" si="0"/>
-        <v>0.18229079364822928</v>
+        <v>7.0122018947066558E-2</v>
       </c>
       <c r="G35" s="8"/>
     </row>
@@ -4982,15 +4984,15 @@
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36">
-        <v>16.43693</v>
+      <c r="C36" s="10">
+        <v>19.802250000000001</v>
       </c>
       <c r="D36" s="3">
         <v>20.956630000000001</v>
       </c>
       <c r="E36" s="9">
         <f t="shared" si="0"/>
-        <v>0.21566921780839762</v>
+        <v>5.5084238257773303E-2</v>
       </c>
       <c r="G36" s="8"/>
     </row>
@@ -5001,15 +5003,15 @@
       <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="C37">
-        <v>17.42062</v>
+      <c r="C37" s="10">
+        <v>19.054939999999998</v>
       </c>
       <c r="D37" s="3">
         <v>20.08785</v>
       </c>
       <c r="E37" s="9">
         <f t="shared" si="0"/>
-        <v>0.132778271442688</v>
+        <v>5.1419639234661807E-2</v>
       </c>
       <c r="G37" s="8"/>
     </row>
@@ -5020,15 +5022,15 @@
       <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="C38">
-        <v>16.724299999999999</v>
+      <c r="C38" s="10">
+        <v>19.243870000000001</v>
       </c>
       <c r="D38" s="3">
         <v>20.544309999999999</v>
       </c>
       <c r="E38" s="9">
         <f t="shared" si="0"/>
-        <v>0.18594004860713259</v>
+        <v>6.3299278486354527E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -5038,15 +5040,15 @@
       <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="C39">
-        <v>17.983049999999999</v>
+      <c r="C39" s="10">
+        <v>19.147040000000001</v>
       </c>
       <c r="D39" s="3">
         <v>20.322690000000001</v>
       </c>
       <c r="E39" s="9">
         <f t="shared" si="0"/>
-        <v>0.11512452337756482</v>
+        <v>5.7849133161013672E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -5056,15 +5058,15 @@
       <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C40">
-        <v>17.03736</v>
+      <c r="C40" s="10">
+        <v>18.71876</v>
       </c>
       <c r="D40" s="3">
         <v>20.17633</v>
       </c>
       <c r="E40" s="9">
         <f t="shared" si="0"/>
-        <v>0.15557685664340345</v>
+        <v>7.2241582091490397E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -5074,15 +5076,15 @@
       <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="C41">
-        <v>17.065449999999998</v>
+      <c r="C41" s="10">
+        <v>19.041239999999998</v>
       </c>
       <c r="D41" s="3">
         <v>19.822790000000001</v>
       </c>
       <c r="E41" s="9">
         <f t="shared" si="0"/>
-        <v>0.13909949104036326</v>
+        <v>3.9426841529371134E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -5092,19 +5094,19 @@
       <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="C42">
-        <v>11.26074</v>
+      <c r="C42" s="10">
+        <v>12.030430000000001</v>
       </c>
       <c r="D42" s="3">
         <v>13.71912</v>
       </c>
       <c r="E42" s="9">
         <f t="shared" si="0"/>
-        <v>0.17919370921750083</v>
+        <v>0.12309025651791072</v>
       </c>
       <c r="G42" s="9">
         <f>AVERAGE(E42:E51)</f>
-        <v>0.19389287458980292</v>
+        <v>0.11302078626126413</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -5114,15 +5116,15 @@
       <c r="B43" t="s">
         <v>42</v>
       </c>
-      <c r="C43">
-        <v>10.8462</v>
+      <c r="C43" s="10">
+        <v>12.22987</v>
       </c>
       <c r="D43" s="3">
         <v>13.935879999999999</v>
       </c>
       <c r="E43" s="9">
         <f t="shared" si="0"/>
-        <v>0.22170684592576856</v>
+        <v>0.12241853402870857</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -5132,15 +5134,15 @@
       <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="C44">
-        <v>11.3367</v>
+      <c r="C44" s="10">
+        <v>12.50656</v>
       </c>
       <c r="D44" s="3">
         <v>13.770989999999999</v>
       </c>
       <c r="E44" s="9">
         <f t="shared" si="0"/>
-        <v>0.17676942616326052</v>
+        <v>9.1818380523114099E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -5150,15 +5152,15 @@
       <c r="B45" t="s">
         <v>44</v>
       </c>
-      <c r="C45">
-        <v>11.286049999999999</v>
+      <c r="C45" s="10">
+        <v>12.23607</v>
       </c>
       <c r="D45" s="3">
         <v>13.95346</v>
       </c>
       <c r="E45" s="9">
         <f t="shared" si="0"/>
-        <v>0.19116477203503648</v>
+        <v>0.12307986692906275</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -5168,15 +5170,15 @@
       <c r="B46" t="s">
         <v>45</v>
       </c>
-      <c r="C46">
-        <v>11.181430000000001</v>
+      <c r="C46" s="10">
+        <v>12.09756</v>
       </c>
       <c r="D46" s="3">
         <v>13.769080000000001</v>
       </c>
       <c r="E46" s="9">
         <f t="shared" si="0"/>
-        <v>0.18793194607047092</v>
+        <v>0.12139663652183014</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -5186,15 +5188,15 @@
       <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="C47">
-        <v>11.08013</v>
+      <c r="C47" s="10">
+        <v>12.322570000000001</v>
       </c>
       <c r="D47" s="3">
         <v>13.89026</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" si="0"/>
-        <v>0.20230938801721488</v>
+        <v>0.11286253821022781</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -5204,15 +5206,15 @@
       <c r="B48" t="s">
         <v>47</v>
       </c>
-      <c r="C48">
-        <v>11.363340000000001</v>
+      <c r="C48" s="10">
+        <v>12.20191</v>
       </c>
       <c r="D48" s="3">
         <v>13.78978</v>
       </c>
       <c r="E48" s="9">
         <f t="shared" si="0"/>
-        <v>0.17595929739270674</v>
+        <v>0.11514831998770107</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -5222,15 +5224,15 @@
       <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="C49">
-        <v>11.06908</v>
+      <c r="C49" s="10">
+        <v>12.714880000000001</v>
       </c>
       <c r="D49" s="3">
         <v>14.100860000000001</v>
       </c>
       <c r="E49" s="9">
         <f t="shared" si="0"/>
-        <v>0.21500674426949853</v>
+        <v>9.8290458879812997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -5240,15 +5242,15 @@
       <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="C50">
-        <v>11.03786</v>
+      <c r="C50" s="10">
+        <v>12.238709999999999</v>
       </c>
       <c r="D50" s="3">
         <v>13.71674</v>
       </c>
       <c r="E50" s="9">
         <f t="shared" si="0"/>
-        <v>0.19530004942865431</v>
+        <v>0.10775373740407709</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -5258,15 +5260,15 @@
       <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="C51">
-        <v>11.262370000000001</v>
+      <c r="C51" s="10">
+        <v>12.369</v>
       </c>
       <c r="D51" s="3">
         <v>13.965999999999999</v>
       </c>
       <c r="E51" s="9">
         <f t="shared" si="0"/>
-        <v>0.19358656737791771</v>
+        <v>0.11434913361019616</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -5276,19 +5278,19 @@
       <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="C52">
-        <v>7.6476899999999999</v>
+      <c r="C52" s="10">
+        <v>8.3008900000000008</v>
       </c>
       <c r="D52">
         <v>9.5818700000000003</v>
       </c>
       <c r="E52" s="9">
         <f t="shared" si="0"/>
-        <v>0.20185830114580977</v>
+        <v>0.13368789182069885</v>
       </c>
       <c r="G52" s="9">
         <f>AVERAGE(E52:E61)</f>
-        <v>0.20074144922824333</v>
+        <v>0.13787850450350186</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -5298,15 +5300,15 @@
       <c r="B53" t="s">
         <v>52</v>
       </c>
-      <c r="C53">
-        <v>7.6638900000000003</v>
+      <c r="C53" s="10">
+        <v>8.1224799999999995</v>
       </c>
       <c r="D53">
         <v>9.5038400000000003</v>
       </c>
       <c r="E53" s="9">
         <f t="shared" si="0"/>
-        <v>0.19360069193084059</v>
+        <v>0.14534756477381783</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -5316,15 +5318,15 @@
       <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="C54">
-        <v>7.4472500000000004</v>
+      <c r="C54" s="10">
+        <v>8.1500199999999996</v>
       </c>
       <c r="D54" s="4">
         <v>9.4111499999999992</v>
       </c>
       <c r="E54" s="9">
         <f t="shared" si="0"/>
-        <v>0.20867800428215458</v>
+        <v>0.13400381462414263</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5334,15 +5336,15 @@
       <c r="B55" t="s">
         <v>54</v>
       </c>
-      <c r="C55">
-        <v>7.6505900000000002</v>
+      <c r="C55" s="10">
+        <v>8.2229500000000009</v>
       </c>
       <c r="D55" s="4">
         <v>9.5068999999999999</v>
       </c>
       <c r="E55" s="9">
         <f t="shared" si="0"/>
-        <v>0.19525923276777915</v>
+        <v>0.13505453933458847</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5352,15 +5354,15 @@
       <c r="B56" t="s">
         <v>55</v>
       </c>
-      <c r="C56">
-        <v>7.6590800000000003</v>
+      <c r="C56" s="10">
+        <v>8.1825200000000002</v>
       </c>
       <c r="D56" s="4">
         <v>9.6020699999999994</v>
       </c>
       <c r="E56" s="9">
         <f t="shared" si="0"/>
-        <v>0.20235115969785675</v>
+        <v>0.14783791411643524</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -5370,15 +5372,15 @@
       <c r="B57" t="s">
         <v>56</v>
       </c>
-      <c r="C57">
-        <v>7.6853400000000001</v>
+      <c r="C57" s="10">
+        <v>8.2850199999999994</v>
       </c>
       <c r="D57" s="4">
         <v>9.5215700000000005</v>
       </c>
       <c r="E57" s="9">
         <f t="shared" si="0"/>
-        <v>0.19284949855958633</v>
+        <v>0.12986828852804749</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -5388,15 +5390,15 @@
       <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="C58">
-        <v>7.3559200000000002</v>
+      <c r="C58" s="10">
+        <v>8.3826999999999998</v>
       </c>
       <c r="D58" s="5">
         <v>9.5524400000000007</v>
       </c>
       <c r="E58" s="9">
         <f t="shared" si="0"/>
-        <v>0.22994334431831032</v>
+        <v>0.12245457705047096</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -5406,15 +5408,15 @@
       <c r="B59" t="s">
         <v>58</v>
       </c>
-      <c r="C59">
-        <v>7.6312600000000002</v>
+      <c r="C59" s="10">
+        <v>8.1442700000000006</v>
       </c>
       <c r="D59" s="4">
         <v>9.5225200000000001</v>
       </c>
       <c r="E59" s="9">
         <f t="shared" si="0"/>
-        <v>0.19860919168455407</v>
+        <v>0.14473584723371538</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5424,15 +5426,15 @@
       <c r="B60" t="s">
         <v>59</v>
       </c>
-      <c r="C60">
-        <v>7.7134</v>
+      <c r="C60" s="10">
+        <v>8.1909500000000008</v>
       </c>
       <c r="D60" s="6">
         <v>9.5343199999999992</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" si="0"/>
-        <v>0.1909858280401748</v>
+        <v>0.14089835457588989</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -5442,15 +5444,15 @@
       <c r="B61" t="s">
         <v>60</v>
       </c>
-      <c r="C61">
-        <v>7.6615399999999996</v>
+      <c r="C61" s="10">
+        <v>8.1210400000000007</v>
       </c>
       <c r="D61" s="5">
         <v>9.4971399999999999</v>
       </c>
       <c r="E61" s="9">
         <f t="shared" si="0"/>
-        <v>0.19327923985536702</v>
+        <v>0.14489625297721201</v>
       </c>
     </row>
   </sheetData>
@@ -5463,8 +5465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2494C6-E565-4DDC-80DA-B313E62A0741}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B31" sqref="A31:XFD31"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5882,8 +5884,8 @@
         <v>0</v>
       </c>
       <c r="G22" s="9">
-        <f>AVERAGE(E22:E30)</f>
-        <v>2.9119228801684255E-3</v>
+        <f>AVERAGE(E22:E31)</f>
+        <v>6.1340794395880896E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6609,8 +6611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F127C9B-316E-4969-8C68-C3FDC9010DE7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Comparacion_resultados.xlsx
+++ b/src/Comparacion_resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mer\Desktop\proyecto\mdp\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5BC497-DBE6-44D5-8C21-97B7F5A2D02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9FFA8A-49EB-4271-BF3F-121A18B1B443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="2430" windowWidth="13065" windowHeight="11295" firstSheet="4" activeTab="4" xr2:uid="{C3C22821-3E45-4ED2-BB68-30A55BA9BDAB}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="3" activeTab="4" xr2:uid="{C3C22821-3E45-4ED2-BB68-30A55BA9BDAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados Greedy-Exactos" sheetId="4" r:id="rId1"/>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -342,7 +342,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,10 +507,10 @@
                   <c:v>5.7616749073721239E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11302078626126413</c:v>
+                  <c:v>0.112754332735858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13787850450350186</c:v>
+                  <c:v>0.13415674403508032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -569,7 +568,7 @@
                   <c:v>6.1340794395880896E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2190535014330776E-2</c:v>
+                  <c:v>5.0648388746631336E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8.1057511324882939E-2</c:v>
@@ -624,22 +623,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.16380875442923779</c:v>
+                  <c:v>0.15747773396587827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11551350637494144</c:v>
+                  <c:v>9.6849100676991554E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13907218906146865</c:v>
+                  <c:v>0.16246844754766543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17642831355158273</c:v>
+                  <c:v>0.17771329715189391</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18001398080337336</c:v>
+                  <c:v>0.17758638290387307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18730009411279053</c:v>
+                  <c:v>0.17958288440035963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,19 +687,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.1535969483705956E-2</c:v>
+                  <c:v>2.0731162150621672E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6719910766570555E-2</c:v>
+                  <c:v>8.2645778144028056E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2243749535013644E-2</c:v>
+                  <c:v>0.10352504239200946</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1354700749423669</c:v>
+                  <c:v>0.12831502940192585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14779887662462646</c:v>
+                  <c:v>0.15385600409596634</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.15694167053185232</c:v>
@@ -1931,17 +1930,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E29C35B-3859-4FC1-AC82-E4926B09B98F}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1973,18 +1972,18 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>54.234549999999999</v>
+        <v>70.862639999999999</v>
       </c>
       <c r="D2" s="3">
         <v>80.284970000000001</v>
       </c>
       <c r="E2" s="9">
         <f>ABS(D2-C2)/D2</f>
-        <v>0.32447443151563737</v>
+        <v>0.11736107019782162</v>
       </c>
       <c r="G2" s="9">
         <f>AVERAGE(E2:E11)</f>
-        <v>0.16380875442923779</v>
+        <v>0.15747773396587827</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,14 +1994,14 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>72.846500000000006</v>
+        <v>56.976289999999999</v>
       </c>
       <c r="D3" s="3">
         <v>78.420630000000003</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E61" si="0">ABS(D3-C3)/D3</f>
-        <v>7.1079893135262959E-2</v>
+        <v>0.27345278914489723</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -2014,14 +2013,14 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>66.643889999999999</v>
+        <v>64.466399999999993</v>
       </c>
       <c r="D4" s="3">
         <v>81.20881</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="0"/>
-        <v>0.17935147676711433</v>
+        <v>0.20616494688199477</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -2033,14 +2032,14 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>76.349540000000005</v>
+        <v>75.08614</v>
       </c>
       <c r="D5" s="3">
         <v>81.519300000000001</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="0"/>
-        <v>6.3417620121860668E-2</v>
+        <v>7.8915790493784915E-2</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -2052,14 +2051,14 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>56.264969999999998</v>
+        <v>74.95402</v>
       </c>
       <c r="D6" s="3">
         <v>77.958529999999996</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="0"/>
-        <v>0.27827051125771612</v>
+        <v>3.8539849327584759E-2</v>
       </c>
       <c r="G6" s="8"/>
     </row>
@@ -2071,14 +2070,14 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>69.177930000000003</v>
+        <v>64.734880000000004</v>
       </c>
       <c r="D7" s="3">
         <v>74.068569999999994</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>6.6028546251129069E-2</v>
+        <v>0.12601417848353211</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -2090,14 +2089,14 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>63.838520000000003</v>
+        <v>76.005179999999996</v>
       </c>
       <c r="D8" s="3">
         <v>77.008229999999998</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>0.17101691598417462</v>
+        <v>1.3025231199314695E-2</v>
       </c>
       <c r="G8" s="8"/>
     </row>
@@ -2109,14 +2108,14 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>82.711830000000006</v>
+        <v>64.530569999999997</v>
       </c>
       <c r="D9" s="3">
         <v>91.607209999999995</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>9.7103492181455905E-2</v>
+        <v>0.29557324145119146</v>
       </c>
       <c r="G9" s="8"/>
     </row>
@@ -2128,14 +2127,14 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>84.8476</v>
+        <v>82.279619999999994</v>
       </c>
       <c r="D10" s="3">
         <v>85.552880000000002</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>8.2437902733374004E-3</v>
+        <v>3.8260079613918405E-2</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -2147,14 +2146,14 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>55.2209</v>
+        <v>54.476559999999999</v>
       </c>
       <c r="D11" s="3">
         <v>88.936989999999994</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>0.37910086680468946</v>
+        <v>0.38747016286474273</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -2166,18 +2165,18 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>48.224209999999999</v>
+        <v>51.812930000000001</v>
       </c>
       <c r="D12" s="3">
         <v>54.214179999999999</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="0"/>
-        <v>0.11048714561393347</v>
+        <v>4.4291917723370482E-2</v>
       </c>
       <c r="G12" s="9">
         <f>AVERAGE(E12:E21)</f>
-        <v>0.11551350637494144</v>
+        <v>9.6849100676991554E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2188,14 +2187,14 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>45.674340000000001</v>
+        <v>47.701619999999998</v>
       </c>
       <c r="D13" s="3">
         <v>54.207369999999997</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="0"/>
-        <v>0.15741457296304906</v>
+        <v>0.12001596830836839</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -2207,14 +2206,14 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>49.618070000000003</v>
+        <v>49.494250000000001</v>
       </c>
       <c r="D14" s="3">
         <v>55.747340000000001</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="0"/>
-        <v>0.10994730869670191</v>
+        <v>0.11216840121878462</v>
       </c>
       <c r="G14" s="8"/>
     </row>
@@ -2226,14 +2225,14 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>50.48836</v>
+        <v>43.821129999999997</v>
       </c>
       <c r="D15" s="3">
         <v>53.857100000000003</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="0"/>
-        <v>6.2549598845834664E-2</v>
+        <v>0.18634441884171271</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -2245,14 +2244,14 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>49.69417</v>
+        <v>47.871850000000002</v>
       </c>
       <c r="D16" s="3">
         <v>56.508110000000002</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="0"/>
-        <v>0.1205833994447877</v>
+        <v>0.15283222178197076</v>
       </c>
       <c r="G16" s="8"/>
     </row>
@@ -2264,14 +2263,14 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>44.712829999999997</v>
+        <v>48.80959</v>
       </c>
       <c r="D17" s="3">
         <v>50.834330000000001</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="0"/>
-        <v>0.12042058978646919</v>
+        <v>3.9830169887160927E-2</v>
       </c>
       <c r="G17" s="8"/>
     </row>
@@ -2302,14 +2301,14 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>47.533450000000002</v>
+        <v>48.59592</v>
       </c>
       <c r="D19" s="3">
         <v>50.625689999999999</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="0"/>
-        <v>6.108045144668639E-2</v>
+        <v>4.0093675760271105E-2</v>
       </c>
       <c r="G19" s="8"/>
     </row>
@@ -2321,14 +2320,14 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>44.147039999999997</v>
+        <v>50.518000000000001</v>
       </c>
       <c r="D20" s="3">
         <v>52.219450000000002</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="0"/>
-        <v>0.15458627005837872</v>
+        <v>3.25826871022196E-2</v>
       </c>
       <c r="G20" s="8"/>
     </row>
@@ -2340,14 +2339,14 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>46.18186</v>
+        <v>47.201219999999999</v>
       </c>
       <c r="D21" s="3">
         <v>57.479959999999998</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="0"/>
-        <v>0.19655720010939462</v>
+        <v>0.17882301936187847</v>
       </c>
       <c r="G21" s="8"/>
     </row>
@@ -2359,18 +2358,18 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>32.885170000000002</v>
+        <v>28.951509999999999</v>
       </c>
       <c r="D22" s="3">
         <v>34.110469999999999</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="0"/>
-        <v>3.5921522042938643E-2</v>
+        <v>0.15124271228159566</v>
       </c>
       <c r="G22" s="9">
         <f>AVERAGE(E22:E31)</f>
-        <v>0.13907218906146865</v>
+        <v>0.16246844754766543</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2381,14 +2380,14 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>29.076530000000002</v>
+        <v>29.418009999999999</v>
       </c>
       <c r="D23" s="3">
         <v>34.819920000000003</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="0"/>
-        <v>0.16494552543486604</v>
+        <v>0.15513849543594596</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -2400,14 +2399,14 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>30.37857</v>
+        <v>29.613489999999999</v>
       </c>
       <c r="D24" s="3">
         <v>36.06071</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="0"/>
-        <v>0.15757149540316873</v>
+        <v>0.1787879384515724</v>
       </c>
       <c r="G24" s="8"/>
     </row>
@@ -2419,14 +2418,14 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>31.851849999999999</v>
+        <v>29.58353</v>
       </c>
       <c r="D25" s="3">
         <v>34.59243</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="0"/>
-        <v>7.9224847748481431E-2</v>
+        <v>0.14479757565455798</v>
       </c>
       <c r="G25" s="8"/>
     </row>
@@ -2438,14 +2437,14 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>29.384799999999998</v>
+        <v>30.73752</v>
       </c>
       <c r="D26" s="3">
         <v>35.609830000000002</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="0"/>
-        <v>0.17481212350634651</v>
+        <v>0.13682485987717441</v>
       </c>
       <c r="G26" s="8"/>
     </row>
@@ -2457,14 +2456,14 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>28.12415</v>
+        <v>28.28369</v>
       </c>
       <c r="D27" s="3">
         <v>33.63758</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="0"/>
-        <v>0.16390685655745746</v>
+        <v>0.15916394699024128</v>
       </c>
       <c r="G27" s="8"/>
     </row>
@@ -2476,14 +2475,14 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>30.409690000000001</v>
+        <v>30.147919999999999</v>
       </c>
       <c r="D28" s="3">
         <v>35.059179999999998</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="0"/>
-        <v>0.13261833277332774</v>
+        <v>0.14008485081510746</v>
       </c>
       <c r="G28" s="8"/>
     </row>
@@ -2495,14 +2494,14 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>30.016539999999999</v>
+        <v>27.18102</v>
       </c>
       <c r="D29" s="3">
         <v>33.783880000000003</v>
       </c>
       <c r="E29" s="9">
         <f t="shared" si="0"/>
-        <v>0.11151294641112874</v>
+        <v>0.19544409937520504</v>
       </c>
       <c r="G29" s="8"/>
     </row>
@@ -2514,14 +2513,14 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>29.85088</v>
+        <v>28.877330000000001</v>
       </c>
       <c r="D30" s="3">
         <v>35.387149999999998</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" si="0"/>
-        <v>0.15644859786673973</v>
+        <v>0.18395999677849156</v>
       </c>
       <c r="G30" s="8"/>
     </row>
@@ -2533,14 +2532,14 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>27.461300000000001</v>
+        <v>28.666979999999999</v>
       </c>
       <c r="D31" s="3">
         <v>34.92736</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" si="0"/>
-        <v>0.21375964287023122</v>
+        <v>0.17923999981676261</v>
       </c>
       <c r="G31" s="8"/>
     </row>
@@ -2552,18 +2551,18 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>16.619150000000001</v>
+        <v>16.875540000000001</v>
       </c>
       <c r="D32" s="3">
         <v>20.345790000000001</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" si="0"/>
-        <v>0.18316516586478085</v>
+        <v>0.17056354164669937</v>
       </c>
       <c r="G32" s="9">
         <f>AVERAGE(E32:E41)</f>
-        <v>0.17642831355158273</v>
+        <v>0.17771329715189391</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2574,14 +2573,14 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>16.737490000000001</v>
+        <v>16.739439999999998</v>
       </c>
       <c r="D33" s="3">
         <v>20.547519999999999</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="0"/>
-        <v>0.18542529706748054</v>
+        <v>0.18533039510364271</v>
       </c>
       <c r="G33" s="8"/>
     </row>
@@ -2593,14 +2592,14 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>15.76793</v>
+        <v>16.370249999999999</v>
       </c>
       <c r="D34" s="3">
         <v>20.384720000000002</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" si="0"/>
-        <v>0.22648287540863948</v>
+        <v>0.19693525346435969</v>
       </c>
       <c r="G34" s="8"/>
     </row>
@@ -2612,14 +2611,14 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>16.322849999999999</v>
+        <v>15.88044</v>
       </c>
       <c r="D35" s="3">
         <v>19.806760000000001</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" si="0"/>
-        <v>0.17589499746551185</v>
+        <v>0.19823131092616866</v>
       </c>
       <c r="G35" s="8"/>
     </row>
@@ -2631,14 +2630,14 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>16.569099999999999</v>
+        <v>18.127700000000001</v>
       </c>
       <c r="D36" s="3">
         <v>20.956630000000001</v>
       </c>
       <c r="E36" s="9">
         <f t="shared" si="0"/>
-        <v>0.20936238316943143</v>
+        <v>0.13498973833101982</v>
       </c>
       <c r="G36" s="8"/>
     </row>
@@ -2650,14 +2649,14 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>17.42062</v>
+        <v>15.988189999999999</v>
       </c>
       <c r="D37" s="3">
         <v>20.08785</v>
       </c>
       <c r="E37" s="9">
         <f t="shared" si="0"/>
-        <v>0.132778271442688</v>
+        <v>0.20408654982987229</v>
       </c>
       <c r="G37" s="8"/>
     </row>
@@ -2669,14 +2668,14 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>17.727900000000002</v>
+        <v>16.8216</v>
       </c>
       <c r="D38" s="3">
         <v>20.544309999999999</v>
       </c>
       <c r="E38" s="9">
         <f t="shared" si="0"/>
-        <v>0.13708953963408835</v>
+        <v>0.18120394406042351</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2687,14 +2686,14 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>16.713080000000001</v>
+        <v>16.916709999999998</v>
       </c>
       <c r="D39" s="3">
         <v>20.322690000000001</v>
       </c>
       <c r="E39" s="9">
         <f t="shared" si="0"/>
-        <v>0.17761477442208681</v>
+        <v>0.16759493944945295</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2705,14 +2704,14 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>17.286950000000001</v>
+        <v>16.6919</v>
       </c>
       <c r="D40" s="3">
         <v>20.17633</v>
       </c>
       <c r="E40" s="9">
         <f t="shared" si="0"/>
-        <v>0.14320642059284316</v>
+        <v>0.17269890014685524</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2723,14 +2722,14 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>15.991770000000001</v>
+        <v>16.542149999999999</v>
       </c>
       <c r="D41" s="3">
         <v>19.822790000000001</v>
       </c>
       <c r="E41" s="9">
         <f t="shared" si="0"/>
-        <v>0.19326341044827697</v>
+        <v>0.1654983985604449</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2741,18 +2740,18 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>11.29365</v>
+        <v>11.63</v>
       </c>
       <c r="D42" s="3">
         <v>13.71912</v>
       </c>
       <c r="E42" s="9">
         <f t="shared" si="0"/>
-        <v>0.17679486730927352</v>
+        <v>0.15227798867565845</v>
       </c>
       <c r="G42" s="9">
         <f>AVERAGE(E42:E51)</f>
-        <v>0.18001398080337336</v>
+        <v>0.17758638290387307</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2763,14 +2762,14 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>11.32882</v>
+        <v>11.44895</v>
       </c>
       <c r="D43" s="3">
         <v>13.935879999999999</v>
       </c>
       <c r="E43" s="9">
         <f t="shared" si="0"/>
-        <v>0.18707537665364504</v>
+        <v>0.1784551818758485</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2781,14 +2780,14 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>11.298690000000001</v>
+        <v>11.51473</v>
       </c>
       <c r="D44" s="3">
         <v>13.770989999999999</v>
       </c>
       <c r="E44" s="9">
         <f t="shared" si="0"/>
-        <v>0.17952957630497146</v>
+        <v>0.16384152482864336</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2817,14 +2816,14 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>11.299720000000001</v>
+        <v>11.301909999999999</v>
       </c>
       <c r="D46" s="3">
         <v>13.769080000000001</v>
       </c>
       <c r="E46" s="9">
         <f t="shared" si="0"/>
-        <v>0.17934095814680429</v>
+        <v>0.17918190612589957</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2835,14 +2834,14 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>11.755280000000001</v>
+        <v>11.55053</v>
       </c>
       <c r="D47" s="3">
         <v>13.89026</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" si="0"/>
-        <v>0.15370338640169434</v>
+        <v>0.16844393121511042</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2853,14 +2852,14 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>11.543670000000001</v>
+        <v>10.94642</v>
       </c>
       <c r="D48" s="3">
         <v>13.78978</v>
       </c>
       <c r="E48" s="9">
         <f t="shared" si="0"/>
-        <v>0.16288222147126349</v>
+        <v>0.20619328227136333</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2871,14 +2870,14 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>11.77763</v>
+        <v>11.98413</v>
       </c>
       <c r="D49" s="3">
         <v>14.100860000000001</v>
       </c>
       <c r="E49" s="9">
         <f t="shared" si="0"/>
-        <v>0.16475803603468162</v>
+        <v>0.15011353917420642</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2889,14 +2888,14 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>11.026300000000001</v>
+        <v>11.58975</v>
       </c>
       <c r="D50" s="3">
         <v>13.71674</v>
       </c>
       <c r="E50" s="9">
         <f t="shared" si="0"/>
-        <v>0.1961428152753496</v>
+        <v>0.15506527061094685</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2907,14 +2906,14 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>11.052580000000001</v>
+        <v>10.74004</v>
       </c>
       <c r="D51" s="3">
         <v>13.965999999999999</v>
       </c>
       <c r="E51" s="9">
         <f t="shared" si="0"/>
-        <v>0.20860804811685513</v>
+        <v>0.23098668194185873</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2925,18 +2924,18 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>7.7933599999999998</v>
+        <v>7.8115300000000003</v>
       </c>
       <c r="D52">
         <v>9.5818700000000003</v>
       </c>
       <c r="E52" s="9">
         <f t="shared" si="0"/>
-        <v>0.1866556319382334</v>
+        <v>0.18475934238306302</v>
       </c>
       <c r="G52" s="9">
         <f>AVERAGE(E52:E61)</f>
-        <v>0.18730009411279053</v>
+        <v>0.17958288440035963</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2947,14 +2946,14 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>7.5327099999999998</v>
+        <v>7.5450299999999997</v>
       </c>
       <c r="D53">
         <v>9.5038400000000003</v>
       </c>
       <c r="E53" s="9">
         <f t="shared" si="0"/>
-        <v>0.20740353372952411</v>
+        <v>0.20610721560969045</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2965,14 +2964,14 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>7.8741899999999996</v>
+        <v>7.74627</v>
       </c>
       <c r="D54" s="4">
         <v>9.4111499999999992</v>
       </c>
       <c r="E54" s="9">
         <f t="shared" si="0"/>
-        <v>0.16331266635852151</v>
+        <v>0.17690505411134658</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2983,14 +2982,14 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>7.6594300000000004</v>
+        <v>7.6885500000000002</v>
       </c>
       <c r="D55" s="4">
         <v>9.5068999999999999</v>
       </c>
       <c r="E55" s="9">
         <f t="shared" si="0"/>
-        <v>0.19432938181741677</v>
+        <v>0.19126634339269369</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3001,14 +3000,14 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>7.90855</v>
+        <v>7.9047900000000002</v>
       </c>
       <c r="D56" s="4">
         <v>9.6020699999999994</v>
       </c>
       <c r="E56" s="9">
         <f t="shared" si="0"/>
-        <v>0.17637030348664398</v>
+        <v>0.17676188571839191</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3019,14 +3018,14 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>8.0451099999999993</v>
+        <v>7.8274699999999999</v>
       </c>
       <c r="D57" s="4">
         <v>9.5215700000000005</v>
       </c>
       <c r="E57" s="9">
         <f t="shared" si="0"/>
-        <v>0.15506476347913223</v>
+        <v>0.17792233843788371</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3037,14 +3036,14 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>7.7305200000000003</v>
+        <v>8.1563199999999991</v>
       </c>
       <c r="D58" s="5">
         <v>9.5524400000000007</v>
       </c>
       <c r="E58" s="9">
         <f t="shared" si="0"/>
-        <v>0.19072823278659695</v>
+        <v>0.14615323414750592</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3055,14 +3054,14 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>7.8607399999999998</v>
+        <v>7.8927399999999999</v>
       </c>
       <c r="D59" s="4">
         <v>9.5225200000000001</v>
       </c>
       <c r="E59" s="9">
         <f t="shared" si="0"/>
-        <v>0.17451052872558948</v>
+        <v>0.1711500737199817</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3073,14 +3072,14 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>7.7191599999999996</v>
+        <v>7.6388800000000003</v>
       </c>
       <c r="D60" s="6">
         <v>9.5343199999999992</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" si="0"/>
-        <v>0.190381694761661</v>
+        <v>0.19880180233094746</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3091,14 +3090,14 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>7.2724900000000003</v>
+        <v>7.9206000000000003</v>
       </c>
       <c r="D61" s="5">
         <v>9.4971399999999999</v>
       </c>
       <c r="E61" s="9">
         <f t="shared" si="0"/>
-        <v>0.23424420404458601</v>
+        <v>0.16600155415209206</v>
       </c>
     </row>
   </sheetData>
@@ -3110,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBAA0E8-D306-429E-BC18-CFF05B77FFEF}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3149,18 +3148,18 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>76.712249999999997</v>
+        <v>76.430530000000005</v>
       </c>
       <c r="D2" s="3">
         <v>80.284970000000001</v>
       </c>
       <c r="E2" s="9">
         <f>ABS(D2-C2)/D2</f>
-        <v>4.4500483714448716E-2</v>
+        <v>4.8009484216036909E-2</v>
       </c>
       <c r="G2" s="9">
         <f>AVERAGE(E2:E11)</f>
-        <v>4.1535969483705956E-2</v>
+        <v>2.0731162150621672E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3171,14 +3170,14 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>58.002749999999999</v>
+        <v>72.846500000000006</v>
       </c>
       <c r="D3" s="3">
         <v>78.420630000000003</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E61" si="0">ABS(D3-C3)/D3</f>
-        <v>0.26036363135567775</v>
+        <v>7.1079893135262959E-2</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -3190,14 +3189,14 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>79.408600000000007</v>
+        <v>81.20881</v>
       </c>
       <c r="D4" s="3">
         <v>81.20881</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="0"/>
-        <v>2.216766875416587E-2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -3209,14 +3208,14 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>80.855860000000007</v>
+        <v>81.519300000000001</v>
       </c>
       <c r="D5" s="3">
         <v>81.519300000000001</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="0"/>
-        <v>8.1384408354830597E-3</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -3247,14 +3246,14 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>70.962919999999997</v>
+        <v>72.483239999999995</v>
       </c>
       <c r="D7" s="3">
         <v>74.068569999999994</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>4.1929390563365775E-2</v>
+        <v>2.1403545390440225E-2</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -3266,14 +3265,14 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>77.008229999999998</v>
+        <v>76.879390000000001</v>
       </c>
       <c r="D8" s="3">
         <v>77.008229999999998</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6730679305315384E-3</v>
       </c>
       <c r="G8" s="8"/>
     </row>
@@ -3323,14 +3322,14 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>88.936989999999994</v>
+        <v>86.545869999999994</v>
       </c>
       <c r="D11" s="3">
         <v>88.936989999999994</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.6885551220026685E-2</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -3353,7 +3352,7 @@
       </c>
       <c r="G12" s="9">
         <f>AVERAGE(E12:E21)</f>
-        <v>5.6719910766570555E-2</v>
+        <v>8.2645778144028056E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3364,14 +3363,14 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>52.85651</v>
+        <v>47.701619999999998</v>
       </c>
       <c r="D13" s="3">
         <v>54.207369999999997</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="0"/>
-        <v>2.4920227636943047E-2</v>
+        <v>0.12001596830836839</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -3383,14 +3382,14 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>45.409520000000001</v>
+        <v>50.845489999999998</v>
       </c>
       <c r="D14" s="3">
         <v>55.747340000000001</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="0"/>
-        <v>0.1854405968069508</v>
+        <v>8.7929755930955686E-2</v>
       </c>
       <c r="G14" s="8"/>
     </row>
@@ -3402,14 +3401,14 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>53.857100000000003</v>
+        <v>45.428190000000001</v>
       </c>
       <c r="D15" s="3">
         <v>53.857100000000003</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15650508475205685</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -3421,14 +3420,14 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>56.508110000000002</v>
+        <v>49.155749999999998</v>
       </c>
       <c r="D16" s="3">
         <v>56.508110000000002</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13011158929222733</v>
       </c>
       <c r="G16" s="8"/>
     </row>
@@ -3440,14 +3439,14 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>47.005580000000002</v>
+        <v>48.80959</v>
       </c>
       <c r="D17" s="3">
         <v>50.834330000000001</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="0"/>
-        <v>7.5318195400627869E-2</v>
+        <v>3.9830169887160927E-2</v>
       </c>
       <c r="G17" s="8"/>
     </row>
@@ -3459,14 +3458,14 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>47.658940000000001</v>
+        <v>54.290689999999998</v>
       </c>
       <c r="D18" s="3">
         <v>57.848889999999997</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="0"/>
-        <v>0.17614771865112705</v>
+        <v>6.1508526784178563E-2</v>
       </c>
       <c r="G18" s="8"/>
     </row>
@@ -3478,14 +3477,14 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>47.533450000000002</v>
+        <v>48.59592</v>
       </c>
       <c r="D19" s="3">
         <v>50.625689999999999</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="0"/>
-        <v>6.108045144668639E-2</v>
+        <v>4.0093675760271105E-2</v>
       </c>
       <c r="G19" s="8"/>
     </row>
@@ -3497,14 +3496,14 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>52.219450000000002</v>
+        <v>50.760339999999999</v>
       </c>
       <c r="D20" s="3">
         <v>52.219450000000002</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7941887553392511E-2</v>
       </c>
       <c r="G20" s="8"/>
     </row>
@@ -3516,14 +3515,14 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>57.479959999999998</v>
+        <v>50.684150000000002</v>
       </c>
       <c r="D21" s="3">
         <v>57.479959999999998</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11822920544829878</v>
       </c>
       <c r="G21" s="8"/>
     </row>
@@ -3546,7 +3545,7 @@
       </c>
       <c r="G22" s="9">
         <f>AVERAGE(E22:E31)</f>
-        <v>9.2243749535013644E-2</v>
+        <v>0.10352504239200946</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3690,14 +3689,14 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>28.877330000000001</v>
+        <v>29.276599999999998</v>
       </c>
       <c r="D30" s="3">
         <v>35.387149999999998</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" si="0"/>
-        <v>0.18395999677849156</v>
+        <v>0.1726770875868783</v>
       </c>
       <c r="G30" s="8"/>
     </row>
@@ -3709,14 +3708,14 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>33.00132</v>
+        <v>28.666979999999999</v>
       </c>
       <c r="D31" s="3">
         <v>34.92736</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" si="0"/>
-        <v>5.5144162055191126E-2</v>
+        <v>0.17923999981676261</v>
       </c>
       <c r="G31" s="8"/>
     </row>
@@ -3739,7 +3738,7 @@
       </c>
       <c r="G32" s="9">
         <f>AVERAGE(E32:E41)</f>
-        <v>0.1354700749423669</v>
+        <v>0.12831502940192585</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3750,14 +3749,14 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>18.130500000000001</v>
+        <v>18.121559999999999</v>
       </c>
       <c r="D33" s="3">
         <v>20.547519999999999</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="0"/>
-        <v>0.11763074083879696</v>
+        <v>0.11806582984223887</v>
       </c>
       <c r="G33" s="8"/>
     </row>
@@ -3769,14 +3768,14 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>16.370249999999999</v>
+        <v>17.827950000000001</v>
       </c>
       <c r="D34" s="3">
         <v>20.384720000000002</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" si="0"/>
-        <v>0.19693525346435969</v>
+        <v>0.12542580913547011</v>
       </c>
       <c r="G34" s="8"/>
     </row>
@@ -3788,14 +3787,14 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>16.99654</v>
+        <v>17.005970000000001</v>
       </c>
       <c r="D35" s="3">
         <v>19.806760000000001</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" si="0"/>
-        <v>0.14188186255601629</v>
+        <v>0.14140576247705325</v>
       </c>
       <c r="G35" s="8"/>
     </row>
@@ -3928,7 +3927,7 @@
       </c>
       <c r="G42" s="9">
         <f>AVERAGE(E42:E51)</f>
-        <v>0.14779887662462646</v>
+        <v>0.15385600409596634</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3975,14 +3974,14 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>12.195970000000001</v>
+        <v>11.610519999999999</v>
       </c>
       <c r="D45" s="3">
         <v>13.95346</v>
       </c>
       <c r="E45" s="9">
         <f t="shared" si="0"/>
-        <v>0.12595370610586901</v>
+        <v>0.16791104141911758</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4047,14 +4046,14 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>12.13631</v>
+        <v>12.15746</v>
       </c>
       <c r="D49" s="3">
         <v>14.100860000000001</v>
       </c>
       <c r="E49" s="9">
         <f t="shared" si="0"/>
-        <v>0.13932128962346982</v>
+        <v>0.13782138110725164</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4083,14 +4082,14 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>11.412000000000001</v>
+        <v>11.13109</v>
       </c>
       <c r="D51" s="3">
         <v>13.965999999999999</v>
       </c>
       <c r="E51" s="9">
         <f t="shared" si="0"/>
-        <v>0.18287269082056412</v>
+        <v>0.20298653873693248</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4286,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D352FE3-BDA6-45A5-B0DD-CB3ABF2FCFE0}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52:E61"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4325,7 +4324,7 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>80.284970000000001</v>
       </c>
       <c r="D2" s="3">
@@ -4347,7 +4346,7 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>78.420630000000003</v>
       </c>
       <c r="D3" s="3">
@@ -4366,7 +4365,7 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>81.20881</v>
       </c>
       <c r="D4" s="3">
@@ -4385,7 +4384,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>81.519300000000001</v>
       </c>
       <c r="D5" s="3">
@@ -4404,7 +4403,7 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>77.958529999999996</v>
       </c>
       <c r="D6" s="3">
@@ -4423,7 +4422,7 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>74.068569999999994</v>
       </c>
       <c r="D7" s="3">
@@ -4442,7 +4441,7 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>77.008229999999998</v>
       </c>
       <c r="D8" s="3">
@@ -4461,7 +4460,7 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>91.607209999999995</v>
       </c>
       <c r="D9" s="3">
@@ -4480,7 +4479,7 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>85.552880000000002</v>
       </c>
       <c r="D10" s="3">
@@ -4499,7 +4498,7 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11">
         <v>88.936989999999994</v>
       </c>
       <c r="D11" s="3">
@@ -4518,7 +4517,7 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12">
         <v>54.214179999999999</v>
       </c>
       <c r="D12" s="3">
@@ -4540,7 +4539,7 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13">
         <v>54.207369999999997</v>
       </c>
       <c r="D13" s="3">
@@ -4560,7 +4559,7 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14">
         <v>55.747340000000001</v>
       </c>
       <c r="D14" s="3">
@@ -4579,7 +4578,7 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15">
         <v>53.857100000000003</v>
       </c>
       <c r="D15" s="3">
@@ -4598,7 +4597,7 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16">
         <v>56.508110000000002</v>
       </c>
       <c r="D16" s="3">
@@ -4617,7 +4616,7 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17">
         <v>50.834330000000001</v>
       </c>
       <c r="D17" s="3">
@@ -4636,7 +4635,7 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18">
         <v>57.848889999999997</v>
       </c>
       <c r="D18" s="3">
@@ -4655,7 +4654,7 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19">
         <v>50.625689999999999</v>
       </c>
       <c r="D19" s="3">
@@ -4674,7 +4673,7 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20">
         <v>52.219450000000002</v>
       </c>
       <c r="D20" s="3">
@@ -4693,7 +4692,7 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21">
         <v>57.479959999999998</v>
       </c>
       <c r="D21" s="3">
@@ -4712,7 +4711,7 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22">
         <v>34.110469999999999</v>
       </c>
       <c r="D22" s="3">
@@ -4734,7 +4733,7 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23">
         <v>34.819920000000003</v>
       </c>
       <c r="D23" s="3">
@@ -4753,7 +4752,7 @@
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24">
         <v>36.06071</v>
       </c>
       <c r="D24" s="3">
@@ -4772,7 +4771,7 @@
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25">
         <v>34.414319999999996</v>
       </c>
       <c r="D25" s="3">
@@ -4791,7 +4790,7 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26">
         <v>35.609830000000002</v>
       </c>
       <c r="D26" s="3">
@@ -4810,7 +4809,7 @@
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27">
         <v>33.63758</v>
       </c>
       <c r="D27" s="3">
@@ -4829,7 +4828,7 @@
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28">
         <v>35.059179999999998</v>
       </c>
       <c r="D28" s="3">
@@ -4848,7 +4847,7 @@
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29">
         <v>33.783880000000003</v>
       </c>
       <c r="D29" s="3">
@@ -4867,7 +4866,7 @@
       <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30">
         <v>35.387149999999998</v>
       </c>
       <c r="D30" s="3">
@@ -4886,7 +4885,7 @@
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31">
         <v>34.92736</v>
       </c>
       <c r="D31" s="3">
@@ -4905,7 +4904,7 @@
       <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32">
         <v>19.49841</v>
       </c>
       <c r="D32" s="3">
@@ -4927,7 +4926,7 @@
       <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33">
         <v>19.267230000000001</v>
       </c>
       <c r="D33" s="3">
@@ -4946,7 +4945,7 @@
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34">
         <v>19.105229999999999</v>
       </c>
       <c r="D34" s="3">
@@ -4965,7 +4964,7 @@
       <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35">
         <v>18.417870000000001</v>
       </c>
       <c r="D35" s="3">
@@ -4984,7 +4983,7 @@
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36">
         <v>19.802250000000001</v>
       </c>
       <c r="D36" s="3">
@@ -5003,7 +5002,7 @@
       <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37">
         <v>19.054939999999998</v>
       </c>
       <c r="D37" s="3">
@@ -5022,7 +5021,7 @@
       <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38">
         <v>19.243870000000001</v>
       </c>
       <c r="D38" s="3">
@@ -5040,7 +5039,7 @@
       <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39">
         <v>19.147040000000001</v>
       </c>
       <c r="D39" s="3">
@@ -5058,7 +5057,7 @@
       <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40">
         <v>18.71876</v>
       </c>
       <c r="D40" s="3">
@@ -5076,7 +5075,7 @@
       <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41">
         <v>19.041239999999998</v>
       </c>
       <c r="D41" s="3">
@@ -5094,19 +5093,19 @@
       <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="10">
-        <v>12.030430000000001</v>
+      <c r="C42">
+        <v>12.128550000000001</v>
       </c>
       <c r="D42" s="3">
         <v>13.71912</v>
       </c>
       <c r="E42" s="9">
         <f t="shared" si="0"/>
-        <v>0.12309025651791072</v>
+        <v>0.11593819428651397</v>
       </c>
       <c r="G42" s="9">
         <f>AVERAGE(E42:E51)</f>
-        <v>0.11302078626126413</v>
+        <v>0.112754332735858</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -5116,7 +5115,7 @@
       <c r="B43" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43">
         <v>12.22987</v>
       </c>
       <c r="D43" s="3">
@@ -5134,7 +5133,7 @@
       <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44">
         <v>12.50656</v>
       </c>
       <c r="D44" s="3">
@@ -5152,15 +5151,15 @@
       <c r="B45" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="10">
-        <v>12.23607</v>
+      <c r="C45">
+        <v>12.19158</v>
       </c>
       <c r="D45" s="3">
         <v>13.95346</v>
       </c>
       <c r="E45" s="9">
         <f t="shared" si="0"/>
-        <v>0.12307986692906275</v>
+        <v>0.12626832341225758</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -5170,15 +5169,15 @@
       <c r="B46" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="10">
-        <v>12.09756</v>
+      <c r="C46">
+        <v>12.17052</v>
       </c>
       <c r="D46" s="3">
         <v>13.769080000000001</v>
       </c>
       <c r="E46" s="9">
         <f t="shared" si="0"/>
-        <v>0.12139663652183014</v>
+        <v>0.11609780755141236</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -5188,15 +5187,15 @@
       <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="10">
-        <v>12.322570000000001</v>
+      <c r="C47">
+        <v>12.26224</v>
       </c>
       <c r="D47" s="3">
         <v>13.89026</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" si="0"/>
-        <v>0.11286253821022781</v>
+        <v>0.11720586943656917</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -5206,15 +5205,15 @@
       <c r="B48" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="10">
-        <v>12.20191</v>
+      <c r="C48">
+        <v>12.170820000000001</v>
       </c>
       <c r="D48" s="3">
         <v>13.78978</v>
       </c>
       <c r="E48" s="9">
         <f t="shared" si="0"/>
-        <v>0.11514831998770107</v>
+        <v>0.11740288822591799</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -5224,7 +5223,7 @@
       <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49">
         <v>12.714880000000001</v>
       </c>
       <c r="D49" s="3">
@@ -5242,7 +5241,7 @@
       <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50">
         <v>12.238709999999999</v>
       </c>
       <c r="D50" s="3">
@@ -5260,7 +5259,7 @@
       <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51">
         <v>12.369</v>
       </c>
       <c r="D51" s="3">
@@ -5278,7 +5277,7 @@
       <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52">
         <v>8.3008900000000008</v>
       </c>
       <c r="D52">
@@ -5290,7 +5289,7 @@
       </c>
       <c r="G52" s="9">
         <f>AVERAGE(E52:E61)</f>
-        <v>0.13787850450350186</v>
+        <v>0.13415674403508032</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -5300,15 +5299,15 @@
       <c r="B53" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="10">
-        <v>8.1224799999999995</v>
+      <c r="C53">
+        <v>8.0687300000000004</v>
       </c>
       <c r="D53">
         <v>9.5038400000000003</v>
       </c>
       <c r="E53" s="9">
         <f t="shared" si="0"/>
-        <v>0.14534756477381783</v>
+        <v>0.15100317345409853</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -5318,15 +5317,15 @@
       <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="10">
-        <v>8.1500199999999996</v>
+      <c r="C54">
+        <v>8.1503899999999998</v>
       </c>
       <c r="D54" s="4">
         <v>9.4111499999999992</v>
       </c>
       <c r="E54" s="9">
         <f t="shared" si="0"/>
-        <v>0.13400381462414263</v>
+        <v>0.13396449955637724</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5336,15 +5335,15 @@
       <c r="B55" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="10">
-        <v>8.2229500000000009</v>
+      <c r="C55">
+        <v>8.2457600000000006</v>
       </c>
       <c r="D55" s="4">
         <v>9.5068999999999999</v>
       </c>
       <c r="E55" s="9">
         <f t="shared" si="0"/>
-        <v>0.13505453933458847</v>
+        <v>0.13265522935972812</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5354,15 +5353,15 @@
       <c r="B56" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="10">
-        <v>8.1825200000000002</v>
+      <c r="C56">
+        <v>8.2870699999999999</v>
       </c>
       <c r="D56" s="4">
         <v>9.6020699999999994</v>
       </c>
       <c r="E56" s="9">
         <f t="shared" si="0"/>
-        <v>0.14783791411643524</v>
+        <v>0.13694963690120979</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -5372,7 +5371,7 @@
       <c r="B57" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57">
         <v>8.2850199999999994</v>
       </c>
       <c r="D57" s="4">
@@ -5390,7 +5389,7 @@
       <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58">
         <v>8.3826999999999998</v>
       </c>
       <c r="D58" s="5">
@@ -5408,15 +5407,15 @@
       <c r="B59" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="10">
-        <v>8.1442700000000006</v>
+      <c r="C59">
+        <v>8.3026400000000002</v>
       </c>
       <c r="D59" s="4">
         <v>9.5225200000000001</v>
       </c>
       <c r="E59" s="9">
         <f t="shared" si="0"/>
-        <v>0.14473584723371538</v>
+        <v>0.12810474538252478</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5426,15 +5425,15 @@
       <c r="B60" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="10">
-        <v>8.1909500000000008</v>
+      <c r="C60">
+        <v>8.2043999999999997</v>
       </c>
       <c r="D60" s="6">
         <v>9.5343199999999992</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" si="0"/>
-        <v>0.14089835457588989</v>
+        <v>0.13948766141686031</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -5444,15 +5443,15 @@
       <c r="B61" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="10">
-        <v>8.1210400000000007</v>
+      <c r="C61">
+        <v>8.2302999999999997</v>
       </c>
       <c r="D61" s="5">
         <v>9.4971399999999999</v>
       </c>
       <c r="E61" s="9">
         <f t="shared" si="0"/>
-        <v>0.14489625297721201</v>
+        <v>0.13339173688078729</v>
       </c>
     </row>
   </sheetData>
@@ -5466,7 +5465,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C12" sqref="C12:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6069,7 +6068,7 @@
       </c>
       <c r="G32" s="9">
         <f>AVERAGE(E32:E41)</f>
-        <v>5.2190535014330776E-2</v>
+        <v>5.0648388746631336E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6116,14 +6115,14 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>18.552009999999999</v>
+        <v>18.469190000000001</v>
       </c>
       <c r="D35" s="3">
         <v>19.806760000000001</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" si="0"/>
-        <v>6.3349583677491994E-2</v>
+        <v>6.7530984370992503E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6152,14 +6151,14 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>19.156590000000001</v>
+        <v>19.149429999999999</v>
       </c>
       <c r="D37" s="3">
         <v>20.08785</v>
       </c>
       <c r="E37" s="9">
         <f t="shared" si="0"/>
-        <v>4.6359366482724547E-2</v>
+        <v>4.6715800844789296E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6170,14 +6169,14 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>19.249469999999999</v>
+        <v>19.659520000000001</v>
       </c>
       <c r="D38" s="3">
         <v>20.544309999999999</v>
       </c>
       <c r="E38" s="9">
         <f t="shared" si="0"/>
-        <v>6.3026696929709525E-2</v>
+        <v>4.3067399197149914E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
